--- a/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (licenciatura)-Presencial-Dispositivo Próprio.xlsx
+++ b/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (licenciatura)-Presencial-Dispositivo Próprio.xlsx
@@ -13,19 +13,14 @@
     <sheet name="RelAnlysML4" r:id="rId7" sheetId="5"/>
     <sheet name="RelAnlysML5" r:id="rId8" sheetId="6"/>
     <sheet name="RelAnlysML6" r:id="rId9" sheetId="7"/>
-    <sheet name="RelAnlysmultimodal" r:id="rId10" sheetId="8"/>
-    <sheet name="RelAnlys2nd-mdl1-all" r:id="rId11" sheetId="9"/>
-    <sheet name="RelAnlys2nd-mdl1-INF" r:id="rId12" sheetId="10"/>
-    <sheet name="RelAnlys2nd-mdl1-EXP" r:id="rId13" sheetId="11"/>
-    <sheet name="RelAnlys2nd-mdl2-all" r:id="rId14" sheetId="12"/>
-    <sheet name="RelAnlys2nd-mdl2-INF" r:id="rId15" sheetId="13"/>
-    <sheet name="RelAnlys2nd-mdl2-EXP" r:id="rId16" sheetId="14"/>
+    <sheet name="RelAnlysINF" r:id="rId10" sheetId="8"/>
+    <sheet name="RelAnlysEXP" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="53">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -180,25 +175,10 @@
     <t>Reliability Analysis of ML6</t>
   </si>
   <si>
-    <t>Reliability Analysis of multimodal</t>
+    <t>Reliability Analysis of INF</t>
   </si>
   <si>
-    <t>Reliability Analysis of 2nd-mdl1-all</t>
-  </si>
-  <si>
-    <t>Reliability Analysis of 2nd-mdl1-INF</t>
-  </si>
-  <si>
-    <t>Reliability Analysis of 2nd-mdl1-EXP</t>
-  </si>
-  <si>
-    <t>Reliability Analysis of 2nd-mdl2-all</t>
-  </si>
-  <si>
-    <t>Reliability Analysis of 2nd-mdl2-INF</t>
-  </si>
-  <si>
-    <t>Reliability Analysis of 2nd-mdl2-EXP</t>
+    <t>Reliability Analysis of EXP</t>
   </si>
 </sst>
 </file>
@@ -206,7 +186,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="959">
+  <fonts count="615">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -3079,2091 +3059,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6069,7 +3964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1603">
+  <cellXfs count="1029">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -7243,660 +5138,6 @@
     <xf numFmtId="0" fontId="612" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="615" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="618" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="624" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="625" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="626" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="627" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="629" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="631" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="635" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="640" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="641" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="643" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="647" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="652" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="654" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="656" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="657" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="659" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="662" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="663" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="667" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="672" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="673" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="675" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="679" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="684" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="686" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="688" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="689" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="690" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="691" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="694" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="695" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="701" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="703" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="704" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="705" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="706" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="707" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="708" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="709" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="711" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="713" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="714" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="715" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="717" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="719" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="720" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="721" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="723" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="727" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="731" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="733" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="735" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="736" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="737" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="738" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="739" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="741" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="743" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="745" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="747" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="748" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="749" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="750" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="751" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="752" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="753" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="754" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="755" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="757" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="758" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="759" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="761" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="763" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="765" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="766" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="767" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="768" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="769" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="770" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="771" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="773" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="774" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="775" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="777" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="779" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="781" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="783" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="784" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="785" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="786" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="787" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="789" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="790" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="791" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="793" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="795" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="796" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="797" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="798" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="799" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="799" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="800" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="801" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="802" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="803" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="805" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="806" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="807" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="809" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="811" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="812" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="813" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="814" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="814" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="815" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="816" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="817" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="818" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="819" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="821" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="822" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="823" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="825" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="827" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="828" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="829" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="830" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="831" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="832" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="833" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="834" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="835" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="835" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="836" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="837" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="838" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="839" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="841" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="842" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="843" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="845" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="847" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="848" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="849" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="850" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="851" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="852" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="852" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="853" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="854" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="855" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="857" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="858" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="859" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="861" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="863" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="864" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="865" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="866" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="867" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="868" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="868" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="869" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="870" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="871" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="873" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="874" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="875" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="877" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="879" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="880" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="881" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="882" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="883" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="884" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="885" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="886" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="887" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="889" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="890" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="891" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="893" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="895" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="896" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="897" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="898" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="899" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="901" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="902" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="903" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="905" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="907" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="908" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="909" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="911" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="912" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="913" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="914" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="915" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="917" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="918" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="919" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="921" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="923" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="924" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="925" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="926" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="927" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="928" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="929" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="930" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="931" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="933" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="934" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="935" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="937" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="937" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="939" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="941" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="943" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="944" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="945" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="946" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="947" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="949" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="950" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="951" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="952" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="953" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="955" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="957" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="958" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -9169,3926 +6410,6 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1031">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1045">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1059">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="1059">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1059">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1059">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s" s="1059">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="1059">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="1059">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="1059">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s" s="1059">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1060">
-        <v>0.8192316350266375</v>
-      </c>
-      <c r="B6" t="n" s="1061">
-        <v>0.8482508516963234</v>
-      </c>
-      <c r="C6" t="n" s="1062">
-        <v>0.9465527088417135</v>
-      </c>
-      <c r="D6" t="n" s="1063">
-        <v>0.38313164507264297</v>
-      </c>
-      <c r="E6" t="n" s="1064">
-        <v>5.5898228173170725</v>
-      </c>
-      <c r="F6" t="n" s="1065">
-        <v>0.04277548540053864</v>
-      </c>
-      <c r="G6" t="n" s="1066">
-        <v>2.7808641975308643</v>
-      </c>
-      <c r="H6" t="n" s="1067">
-        <v>0.8080224345598992</v>
-      </c>
-      <c r="I6" t="n" s="1068">
-        <v>0.27641586603434</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1072">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s" s="1086">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="1086">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="1086">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="1086">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s" s="1086">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="1086">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="1086">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="1086">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1082">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n" s="1087">
-        <v>0.801962463589075</v>
-      </c>
-      <c r="C11" t="n" s="1088">
-        <v>0.8319571687121188</v>
-      </c>
-      <c r="D11" t="n" s="1089">
-        <v>0.9171929959439864</v>
-      </c>
-      <c r="E11" t="n" s="1090">
-        <v>0.3822805853508737</v>
-      </c>
-      <c r="F11" t="n" s="1091">
-        <v>4.950863790713325</v>
-      </c>
-      <c r="G11" t="n" s="1092">
-        <v>0.045730471047795644</v>
-      </c>
-      <c r="H11" t="n" s="1093">
-        <v>0.06898110797921587</v>
-      </c>
-      <c r="I11" t="n" s="1094">
-        <v>0.28385053536815297</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1082">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n" s="1087">
-        <v>0.7949866473736288</v>
-      </c>
-      <c r="C12" t="n" s="1088">
-        <v>0.8267516530187253</v>
-      </c>
-      <c r="D12" t="n" s="1089">
-        <v>0.9193986448579218</v>
-      </c>
-      <c r="E12" t="n" s="1090">
-        <v>0.3736327991742489</v>
-      </c>
-      <c r="F12" t="n" s="1091">
-        <v>4.772060844586781</v>
-      </c>
-      <c r="G12" t="n" s="1092">
-        <v>0.04665660373335602</v>
-      </c>
-      <c r="H12" t="n" s="1093">
-        <v>0.06974950665288594</v>
-      </c>
-      <c r="I12" t="n" s="1094">
-        <v>0.26681041534577443</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1082">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="1087">
-        <v>0.7982725628917015</v>
-      </c>
-      <c r="C13" t="n" s="1088">
-        <v>0.8263095124114044</v>
-      </c>
-      <c r="D13" t="n" s="1089">
-        <v>0.9171113830408545</v>
-      </c>
-      <c r="E13" t="n" s="1090">
-        <v>0.3729113874349686</v>
-      </c>
-      <c r="F13" t="n" s="1091">
-        <v>4.757367682498573</v>
-      </c>
-      <c r="G13" t="n" s="1092">
-        <v>0.04724433191988554</v>
-      </c>
-      <c r="H13" t="n" s="1093">
-        <v>0.06786422282356855</v>
-      </c>
-      <c r="I13" t="n" s="1094">
-        <v>0.26681041534577443</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1082">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="1087">
-        <v>0.8014367726597942</v>
-      </c>
-      <c r="C14" t="n" s="1088">
-        <v>0.8336885397482499</v>
-      </c>
-      <c r="D14" t="n" s="1089">
-        <v>0.9201737799975958</v>
-      </c>
-      <c r="E14" t="n" s="1090">
-        <v>0.3852214022496673</v>
-      </c>
-      <c r="F14" t="n" s="1091">
-        <v>5.0128147422088265</v>
-      </c>
-      <c r="G14" t="n" s="1092">
-        <v>0.045583392793273156</v>
-      </c>
-      <c r="H14" t="n" s="1093">
-        <v>0.07018125505829786</v>
-      </c>
-      <c r="I14" t="n" s="1094">
-        <v>0.28385053536815297</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="1082">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n" s="1087">
-        <v>0.8056614455557651</v>
-      </c>
-      <c r="C15" t="n" s="1088">
-        <v>0.8232736864168257</v>
-      </c>
-      <c r="D15" t="n" s="1089">
-        <v>0.9299743517070789</v>
-      </c>
-      <c r="E15" t="n" s="1090">
-        <v>0.36801193635296686</v>
-      </c>
-      <c r="F15" t="n" s="1091">
-        <v>4.6584669239386445</v>
-      </c>
-      <c r="G15" t="n" s="1092">
-        <v>0.0482944618201051</v>
-      </c>
-      <c r="H15" t="n" s="1093">
-        <v>0.05450340455901911</v>
-      </c>
-      <c r="I15" t="n" s="1094">
-        <v>0.2735512315252719</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="1082">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n" s="1087">
-        <v>0.7741768682859986</v>
-      </c>
-      <c r="C16" t="n" s="1088">
-        <v>0.8184677876977605</v>
-      </c>
-      <c r="D16" t="n" s="1089">
-        <v>0.9306172452831366</v>
-      </c>
-      <c r="E16" t="n" s="1090">
-        <v>0.3604433000388079</v>
-      </c>
-      <c r="F16" t="n" s="1091">
-        <v>4.508664205199375</v>
-      </c>
-      <c r="G16" t="n" s="1092">
-        <v>0.05550347703531016</v>
-      </c>
-      <c r="H16" t="n" s="1093">
-        <v>0.05551417850531977</v>
-      </c>
-      <c r="I16" t="n" s="1094">
-        <v>0.26714683857099786</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1082">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="1087">
-        <v>0.7847540257054217</v>
-      </c>
-      <c r="C17" t="n" s="1088">
-        <v>0.8204159876535153</v>
-      </c>
-      <c r="D17" t="n" s="1089">
-        <v>0.9293260952596999</v>
-      </c>
-      <c r="E17" t="n" s="1090">
-        <v>0.36348425769808085</v>
-      </c>
-      <c r="F17" t="n" s="1091">
-        <v>4.568424421159644</v>
-      </c>
-      <c r="G17" t="n" s="1092">
-        <v>0.05325429063861241</v>
-      </c>
-      <c r="H17" t="n" s="1093">
-        <v>0.05496811914141832</v>
-      </c>
-      <c r="I17" t="n" s="1094">
-        <v>0.27607944280911656</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="1082">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n" s="1087">
-        <v>0.8119420705690292</v>
-      </c>
-      <c r="C18" t="n" s="1088">
-        <v>0.8495899035580471</v>
-      </c>
-      <c r="D18" t="n" s="1089">
-        <v>0.9496908341479438</v>
-      </c>
-      <c r="E18" t="n" s="1090">
-        <v>0.41385456661525033</v>
-      </c>
-      <c r="F18" t="n" s="1091">
-        <v>5.648489853112526</v>
-      </c>
-      <c r="G18" t="n" s="1092">
-        <v>0.044973636277943846</v>
-      </c>
-      <c r="H18" t="n" s="1093">
-        <v>0.07624023483107752</v>
-      </c>
-      <c r="I18" t="n" s="1094">
-        <v>0.28132232408430835</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1082">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="1087">
-        <v>0.8259038565711989</v>
-      </c>
-      <c r="C19" t="n" s="1088">
-        <v>0.8570293831773028</v>
-      </c>
-      <c r="D19" t="n" s="1089">
-        <v>0.952182347121666</v>
-      </c>
-      <c r="E19" t="n" s="1090">
-        <v>0.4283445707389227</v>
-      </c>
-      <c r="F19" t="n" s="1091">
-        <v>5.994444188767369</v>
-      </c>
-      <c r="G19" t="n" s="1092">
-        <v>0.041005487540860676</v>
-      </c>
-      <c r="H19" t="n" s="1093">
-        <v>0.0710004615338735</v>
-      </c>
-      <c r="I19" t="n" s="1094">
-        <v>0.30275691995236437</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1098">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s" s="1112">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s" s="1112">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s" s="1112">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s" s="1112">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s" s="1112">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s" s="1112">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s" s="1112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="1108">
-        <v>18</v>
-      </c>
-      <c r="B24" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C24" t="n" s="1114">
-        <v>0.6223220354985404</v>
-      </c>
-      <c r="D24" t="n" s="1115">
-        <v>0.6760056045524259</v>
-      </c>
-      <c r="E24" t="n" s="1116">
-        <v>0.670361258135953</v>
-      </c>
-      <c r="F24" t="n" s="1117">
-        <v>0.5272344302851021</v>
-      </c>
-      <c r="G24" t="n" s="1118">
-        <v>3.611111111111111</v>
-      </c>
-      <c r="H24" t="n" s="1119">
-        <v>0.9936305084394236</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1108">
-        <v>19</v>
-      </c>
-      <c r="B25" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C25" t="n" s="1114">
-        <v>0.6776640437114265</v>
-      </c>
-      <c r="D25" t="n" s="1115">
-        <v>0.7160377259215347</v>
-      </c>
-      <c r="E25" t="n" s="1116">
-        <v>0.7060471448388647</v>
-      </c>
-      <c r="F25" t="n" s="1117">
-        <v>0.5736462856500842</v>
-      </c>
-      <c r="G25" t="n" s="1118">
-        <v>3.9722222222222223</v>
-      </c>
-      <c r="H25" t="n" s="1119">
-        <v>1.1828805304029435</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1108">
-        <v>20</v>
-      </c>
-      <c r="B26" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C26" t="n" s="1114">
-        <v>0.6716057256822007</v>
-      </c>
-      <c r="D26" t="n" s="1115">
-        <v>0.7193772675931398</v>
-      </c>
-      <c r="E26" t="n" s="1116">
-        <v>0.7153889055086758</v>
-      </c>
-      <c r="F26" t="n" s="1117">
-        <v>0.5982025754677759</v>
-      </c>
-      <c r="G26" t="n" s="1118">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H26" t="n" s="1119">
-        <v>0.8618916073713346</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1108">
-        <v>21</v>
-      </c>
-      <c r="B27" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C27" t="n" s="1114">
-        <v>0.6289686772974729</v>
-      </c>
-      <c r="D27" t="n" s="1115">
-        <v>0.6623920465142947</v>
-      </c>
-      <c r="E27" t="n" s="1116">
-        <v>0.6495089447081389</v>
-      </c>
-      <c r="F27" t="n" s="1117">
-        <v>0.5180050181008302</v>
-      </c>
-      <c r="G27" t="n" s="1118">
-        <v>3.861111111111111</v>
-      </c>
-      <c r="H27" t="n" s="1119">
-        <v>1.1502242707471761</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1108">
-        <v>22</v>
-      </c>
-      <c r="B28" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C28" t="n" s="1114">
-        <v>0.7850463307519996</v>
-      </c>
-      <c r="D28" t="n" s="1115">
-        <v>0.7420576873388158</v>
-      </c>
-      <c r="E28" t="n" s="1116">
-        <v>0.7576314997831833</v>
-      </c>
-      <c r="F28" t="n" s="1117">
-        <v>0.7601362597728121</v>
-      </c>
-      <c r="G28" t="n" s="1118">
-        <v>0.25</v>
-      </c>
-      <c r="H28" t="n" s="1119">
-        <v>0.43915503282683993</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1108">
-        <v>23</v>
-      </c>
-      <c r="B29" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C29" t="n" s="1114">
-        <v>0.820333514617554</v>
-      </c>
-      <c r="D29" t="n" s="1115">
-        <v>0.7770942344201996</v>
-      </c>
-      <c r="E29" t="n" s="1116">
-        <v>0.794482965443715</v>
-      </c>
-      <c r="F29" t="n" s="1117">
-        <v>0.7120297989743365</v>
-      </c>
-      <c r="G29" t="n" s="1118">
-        <v>0.9722222222222222</v>
-      </c>
-      <c r="H29" t="n" s="1119">
-        <v>1.7482417471131406</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1108">
-        <v>24</v>
-      </c>
-      <c r="B30" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C30" t="n" s="1114">
-        <v>0.8087920902556917</v>
-      </c>
-      <c r="D30" t="n" s="1115">
-        <v>0.7630171072100714</v>
-      </c>
-      <c r="E30" t="n" s="1116">
-        <v>0.780482784009558</v>
-      </c>
-      <c r="F30" t="n" s="1117">
-        <v>0.6770164230787524</v>
-      </c>
-      <c r="G30" t="n" s="1118">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="H30" t="n" s="1119">
-        <v>1.9475259030003023</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="1108">
-        <v>25</v>
-      </c>
-      <c r="B31" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C31" t="n" s="1114">
-        <v>0.5338385475715208</v>
-      </c>
-      <c r="D31" t="n" s="1115">
-        <v>0.5298440986749973</v>
-      </c>
-      <c r="E31" t="n" s="1116">
-        <v>0.44483578120856837</v>
-      </c>
-      <c r="F31" t="n" s="1117">
-        <v>0.4183870617409958</v>
-      </c>
-      <c r="G31" t="n" s="1118">
-        <v>3.388888888888889</v>
-      </c>
-      <c r="H31" t="n" s="1119">
-        <v>1.0495652917219118</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="1108">
-        <v>26</v>
-      </c>
-      <c r="B32" t="n" s="1113">
-        <v>36.0</v>
-      </c>
-      <c r="C32" t="n" s="1114">
-        <v>0.4767011022348429</v>
-      </c>
-      <c r="D32" t="n" s="1115">
-        <v>0.4627673241259607</v>
-      </c>
-      <c r="E32" t="n" s="1116">
-        <v>0.36599382217220877</v>
-      </c>
-      <c r="F32" t="n" s="1117">
-        <v>0.31655086313090774</v>
-      </c>
-      <c r="G32" t="n" s="1118">
-        <v>4.222222222222222</v>
-      </c>
-      <c r="H32" t="n" s="1119">
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="1123">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36"/>
-      <c r="B36" t="s" s="1137">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s" s="1137">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s" s="1137">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s" s="1137">
-        <v>41</v>
-      </c>
-      <c r="F36" t="s" s="1137">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s" s="1137">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s" s="1137">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="1133">
-        <v>18</v>
-      </c>
-      <c r="B37" t="n" s="1138">
-        <v>0.0</v>
-      </c>
-      <c r="C37" t="n" s="1139">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D37" t="n" s="1140">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E37" t="n" s="1141">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F37" t="n" s="1142">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G37" t="n" s="1143">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H37" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="1133">
-        <v>19</v>
-      </c>
-      <c r="B38" t="n" s="1138">
-        <v>0.0</v>
-      </c>
-      <c r="C38" t="n" s="1139">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D38" t="n" s="1140">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E38" t="n" s="1141">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F38" t="n" s="1142">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="G38" t="n" s="1143">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="H38" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="1133">
-        <v>20</v>
-      </c>
-      <c r="B39" t="n" s="1138">
-        <v>0.0</v>
-      </c>
-      <c r="C39" t="n" s="1139">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D39" t="n" s="1140">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E39" t="n" s="1141">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F39" t="n" s="1142">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="G39" t="n" s="1143">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H39" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="1133">
-        <v>21</v>
-      </c>
-      <c r="B40" t="n" s="1138">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="1139">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D40" t="n" s="1140">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E40" t="n" s="1141">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="F40" t="n" s="1142">
-        <v>0.0</v>
-      </c>
-      <c r="G40" t="n" s="1143">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="H40" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="1133">
-        <v>22</v>
-      </c>
-      <c r="B41" t="n" s="1138">
-        <v>0.75</v>
-      </c>
-      <c r="C41" t="n" s="1139">
-        <v>0.25</v>
-      </c>
-      <c r="D41" t="n" s="1140">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="1141">
-        <v>0.0</v>
-      </c>
-      <c r="F41" t="n" s="1142">
-        <v>0.0</v>
-      </c>
-      <c r="G41" t="n" s="1143">
-        <v>0.0</v>
-      </c>
-      <c r="H41" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="1133">
-        <v>23</v>
-      </c>
-      <c r="B42" t="n" s="1138">
-        <v>0.75</v>
-      </c>
-      <c r="C42" t="n" s="1139">
-        <v>0.0</v>
-      </c>
-      <c r="D42" t="n" s="1140">
-        <v>0.0</v>
-      </c>
-      <c r="E42" t="n" s="1141">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F42" t="n" s="1142">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G42" t="n" s="1143">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H42" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="1133">
-        <v>24</v>
-      </c>
-      <c r="B43" t="n" s="1138">
-        <v>0.75</v>
-      </c>
-      <c r="C43" t="n" s="1139">
-        <v>0.0</v>
-      </c>
-      <c r="D43" t="n" s="1140">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="1141">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="F43" t="n" s="1142">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G43" t="n" s="1143">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H43" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="1133">
-        <v>25</v>
-      </c>
-      <c r="B44" t="n" s="1138">
-        <v>0.0</v>
-      </c>
-      <c r="C44" t="n" s="1139">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D44" t="n" s="1140">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E44" t="n" s="1141">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="F44" t="n" s="1142">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="G44" t="n" s="1143">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H44" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="1133">
-        <v>26</v>
-      </c>
-      <c r="B45" t="n" s="1138">
-        <v>0.0</v>
-      </c>
-      <c r="C45" t="n" s="1139">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D45" t="n" s="1140">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E45" t="n" s="1141">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F45" t="n" s="1142">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G45" t="n" s="1143">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="H45" t="n" s="1144">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1146">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1174">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="1174">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1174">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1174">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s" s="1174">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="1174">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="1174">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="1174">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s" s="1174">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1175">
-        <v>0.8444983818770226</v>
-      </c>
-      <c r="B6" t="n" s="1176">
-        <v>0.8474132301640888</v>
-      </c>
-      <c r="C6" t="n" s="1177">
-        <v>0.8401339404268553</v>
-      </c>
-      <c r="D6" t="n" s="1178">
-        <v>0.5813117730240912</v>
-      </c>
-      <c r="E6" t="n" s="1179">
-        <v>5.5536481378784</v>
-      </c>
-      <c r="F6" t="n" s="1180">
-        <v>0.04329998794984645</v>
-      </c>
-      <c r="G6" t="n" s="1181">
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="H6" t="n" s="1182">
-        <v>1.2786401506759573</v>
-      </c>
-      <c r="I6" t="n" s="1183">
-        <v>0.5463070960377978</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1187">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s" s="1201">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="1201">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="1201">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="1201">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s" s="1201">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="1201">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="1201">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="1201">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1197">
-        <v>27</v>
-      </c>
-      <c r="B11" t="n" s="1202">
-        <v>0.8148685695855508</v>
-      </c>
-      <c r="C11" t="n" s="1203">
-        <v>0.817439030470217</v>
-      </c>
-      <c r="D11" t="n" s="1204">
-        <v>0.8045993369885177</v>
-      </c>
-      <c r="E11" t="n" s="1205">
-        <v>0.5988029399288327</v>
-      </c>
-      <c r="F11" t="n" s="1206">
-        <v>4.477622092913238</v>
-      </c>
-      <c r="G11" t="n" s="1207">
-        <v>0.05654240338582593</v>
-      </c>
-      <c r="H11" t="n" s="1208">
-        <v>0.04393496872398668</v>
-      </c>
-      <c r="I11" t="n" s="1209">
-        <v>0.5331307687580308</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1197">
-        <v>28</v>
-      </c>
-      <c r="B12" t="n" s="1202">
-        <v>0.8473238628210648</v>
-      </c>
-      <c r="C12" t="n" s="1203">
-        <v>0.8539262877551995</v>
-      </c>
-      <c r="D12" t="n" s="1204">
-        <v>0.8260730613877758</v>
-      </c>
-      <c r="E12" t="n" s="1205">
-        <v>0.6608582515981108</v>
-      </c>
-      <c r="F12" t="n" s="1206">
-        <v>5.845858742359685</v>
-      </c>
-      <c r="G12" t="n" s="1207">
-        <v>0.04639707850814558</v>
-      </c>
-      <c r="H12" t="n" s="1208">
-        <v>0.02291153685912622</v>
-      </c>
-      <c r="I12" t="n" s="1209">
-        <v>0.598847626282453</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1197">
-        <v>29</v>
-      </c>
-      <c r="B13" t="n" s="1202">
-        <v>0.7560487059195615</v>
-      </c>
-      <c r="C13" t="n" s="1203">
-        <v>0.7555855788816249</v>
-      </c>
-      <c r="D13" t="n" s="1204">
-        <v>0.6796881799871759</v>
-      </c>
-      <c r="E13" t="n" s="1205">
-        <v>0.5075033190158158</v>
-      </c>
-      <c r="F13" t="n" s="1206">
-        <v>3.0914116091197386</v>
-      </c>
-      <c r="G13" t="n" s="1207">
-        <v>0.06972315111281761</v>
-      </c>
-      <c r="H13" t="n" s="1208">
-        <v>0.004533502729646851</v>
-      </c>
-      <c r="I13" t="n" s="1209">
-        <v>0.5422693496203315</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1197">
-        <v>30</v>
-      </c>
-      <c r="B14" t="n" s="1202">
-        <v>0.7893766326896481</v>
-      </c>
-      <c r="C14" t="n" s="1203">
-        <v>0.7911706391586569</v>
-      </c>
-      <c r="D14" t="n" s="1204">
-        <v>0.7180434826987558</v>
-      </c>
-      <c r="E14" t="n" s="1205">
-        <v>0.558082581553605</v>
-      </c>
-      <c r="F14" t="n" s="1206">
-        <v>3.7885986720025677</v>
-      </c>
-      <c r="G14" t="n" s="1207">
-        <v>0.060319700104385914</v>
-      </c>
-      <c r="H14" t="n" s="1208">
-        <v>0.0012672200688529317</v>
-      </c>
-      <c r="I14" t="n" s="1209">
-        <v>0.5422693496203315</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1213">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="1227">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s" s="1227">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s" s="1227">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s" s="1227">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s" s="1227">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s" s="1227">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="1227">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1223">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n" s="1228">
-        <v>36.0</v>
-      </c>
-      <c r="C19" t="n" s="1229">
-        <v>0.825144435087365</v>
-      </c>
-      <c r="D19" t="n" s="1230">
-        <v>0.812402577518656</v>
-      </c>
-      <c r="E19" t="n" s="1231">
-        <v>0.7013539318107984</v>
-      </c>
-      <c r="F19" t="n" s="1232">
-        <v>0.6592171939415405</v>
-      </c>
-      <c r="G19" t="n" s="1233">
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="H19" t="n" s="1234">
-        <v>1.6872538033222497</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1223">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n" s="1228">
-        <v>36.0</v>
-      </c>
-      <c r="C20" t="n" s="1229">
-        <v>0.7578907870147142</v>
-      </c>
-      <c r="D20" t="n" s="1230">
-        <v>0.7562094394942044</v>
-      </c>
-      <c r="E20" t="n" s="1231">
-        <v>0.6159831124471187</v>
-      </c>
-      <c r="F20" t="n" s="1232">
-        <v>0.5736173094879204</v>
-      </c>
-      <c r="G20" t="n" s="1233">
-        <v>1.9722222222222223</v>
-      </c>
-      <c r="H20" t="n" s="1234">
-        <v>1.5396866306605772</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1223">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n" s="1228">
-        <v>36.0</v>
-      </c>
-      <c r="C21" t="n" s="1229">
-        <v>0.8873475746145895</v>
-      </c>
-      <c r="D21" t="n" s="1230">
-        <v>0.8950774052092756</v>
-      </c>
-      <c r="E21" t="n" s="1231">
-        <v>0.8914361931257052</v>
-      </c>
-      <c r="F21" t="n" s="1232">
-        <v>0.7941072728639068</v>
-      </c>
-      <c r="G21" t="n" s="1233">
-        <v>1.8611111111111112</v>
-      </c>
-      <c r="H21" t="n" s="1234">
-        <v>1.4570572648375468</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1223">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n" s="1228">
-        <v>36.0</v>
-      </c>
-      <c r="C22" t="n" s="1229">
-        <v>0.8416679826779603</v>
-      </c>
-      <c r="D22" t="n" s="1230">
-        <v>0.8492762093969264</v>
-      </c>
-      <c r="E22" t="n" s="1231">
-        <v>0.8278519893367312</v>
-      </c>
-      <c r="F22" t="n" s="1232">
-        <v>0.7125379426361675</v>
-      </c>
-      <c r="G22" t="n" s="1233">
-        <v>1.75</v>
-      </c>
-      <c r="H22" t="n" s="1234">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1238">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="1252">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s" s="1252">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s" s="1252">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s" s="1252">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s" s="1252">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="1252">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1248">
-        <v>27</v>
-      </c>
-      <c r="B27" t="n" s="1253">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C27" t="n" s="1254">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D27" t="n" s="1255">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="1256">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="F27" t="n" s="1257">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G27" t="n" s="1258">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1248">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n" s="1253">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C28" t="n" s="1254">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D28" t="n" s="1255">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E28" t="n" s="1256">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F28" t="n" s="1257">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G28" t="n" s="1258">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1248">
-        <v>29</v>
-      </c>
-      <c r="B29" t="n" s="1253">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C29" t="n" s="1254">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D29" t="n" s="1255">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E29" t="n" s="1256">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F29" t="n" s="1257">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G29" t="n" s="1258">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1248">
-        <v>30</v>
-      </c>
-      <c r="B30" t="n" s="1253">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C30" t="n" s="1254">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D30" t="n" s="1255">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E30" t="n" s="1256">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F30" t="n" s="1257">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G30" t="n" s="1258">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1260">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1288">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="1288">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1288">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1288">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s" s="1288">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="1288">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="1288">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="1288">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s" s="1288">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1289">
-        <v>0.8572197622350899</v>
-      </c>
-      <c r="B6" t="n" s="1290">
-        <v>0.8787726684273551</v>
-      </c>
-      <c r="C6" t="n" s="1291">
-        <v>0.9649807582986313</v>
-      </c>
-      <c r="D6" t="n" s="1292">
-        <v>0.39722608512266516</v>
-      </c>
-      <c r="E6" t="n" s="1293">
-        <v>7.248964874730043</v>
-      </c>
-      <c r="F6" t="n" s="1294">
-        <v>0.03457301762891574</v>
-      </c>
-      <c r="G6" t="n" s="1295">
-        <v>2.20959595959596</v>
-      </c>
-      <c r="H6" t="n" s="1296">
-        <v>0.8885522614586624</v>
-      </c>
-      <c r="I6" t="n" s="1297">
-        <v>0.32372443186784966</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1301">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s" s="1315">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="1315">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="1315">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="1315">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s" s="1315">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="1315">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="1315">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="1315">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1311">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n" s="1316">
-        <v>0.8446931559107375</v>
-      </c>
-      <c r="C11" t="n" s="1317">
-        <v>0.8658752800151401</v>
-      </c>
-      <c r="D11" t="n" s="1318">
-        <v>0.9518519250457432</v>
-      </c>
-      <c r="E11" t="n" s="1319">
-        <v>0.39230957407882333</v>
-      </c>
-      <c r="F11" t="n" s="1320">
-        <v>6.455747159158135</v>
-      </c>
-      <c r="G11" t="n" s="1321">
-        <v>0.03743620523689523</v>
-      </c>
-      <c r="H11" t="n" s="1322">
-        <v>0.05570082897207356</v>
-      </c>
-      <c r="I11" t="n" s="1323">
-        <v>0.32372443186784966</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1311">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n" s="1316">
-        <v>0.8469442527413541</v>
-      </c>
-      <c r="C12" t="n" s="1317">
-        <v>0.868850314646212</v>
-      </c>
-      <c r="D12" t="n" s="1318">
-        <v>0.9522767417912595</v>
-      </c>
-      <c r="E12" t="n" s="1319">
-        <v>0.3984917298146772</v>
-      </c>
-      <c r="F12" t="n" s="1320">
-        <v>6.624875327015921</v>
-      </c>
-      <c r="G12" t="n" s="1321">
-        <v>0.03653018975509858</v>
-      </c>
-      <c r="H12" t="n" s="1322">
-        <v>0.05497999609572982</v>
-      </c>
-      <c r="I12" t="n" s="1323">
-        <v>0.35395217826414427</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1311">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="1316">
-        <v>0.8416976485316331</v>
-      </c>
-      <c r="C13" t="n" s="1317">
-        <v>0.8595527572544532</v>
-      </c>
-      <c r="D13" t="n" s="1318">
-        <v>0.9506908186721988</v>
-      </c>
-      <c r="E13" t="n" s="1319">
-        <v>0.3796568885626525</v>
-      </c>
-      <c r="F13" t="n" s="1320">
-        <v>6.120111299099943</v>
-      </c>
-      <c r="G13" t="n" s="1321">
-        <v>0.03821475077175365</v>
-      </c>
-      <c r="H13" t="n" s="1322">
-        <v>0.056470654757965734</v>
-      </c>
-      <c r="I13" t="n" s="1323">
-        <v>0.30234458675080533</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1311">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="1316">
-        <v>0.8538137870032819</v>
-      </c>
-      <c r="C14" t="n" s="1317">
-        <v>0.8760657211413513</v>
-      </c>
-      <c r="D14" t="n" s="1318">
-        <v>0.9535836351224158</v>
-      </c>
-      <c r="E14" t="n" s="1319">
-        <v>0.4141354812144833</v>
-      </c>
-      <c r="F14" t="n" s="1320">
-        <v>7.068792663412633</v>
-      </c>
-      <c r="G14" t="n" s="1321">
-        <v>0.03514847254161999</v>
-      </c>
-      <c r="H14" t="n" s="1322">
-        <v>0.051030002940421856</v>
-      </c>
-      <c r="I14" t="n" s="1323">
-        <v>0.35395217826414427</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="1311">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n" s="1316">
-        <v>0.8526830417623844</v>
-      </c>
-      <c r="C15" t="n" s="1317">
-        <v>0.8678056233757021</v>
-      </c>
-      <c r="D15" t="n" s="1318">
-        <v>0.9567519147601549</v>
-      </c>
-      <c r="E15" t="n" s="1319">
-        <v>0.39630362610893105</v>
-      </c>
-      <c r="F15" t="n" s="1320">
-        <v>6.56461829569379</v>
-      </c>
-      <c r="G15" t="n" s="1321">
-        <v>0.037051159276863345</v>
-      </c>
-      <c r="H15" t="n" s="1322">
-        <v>0.04389388721171938</v>
-      </c>
-      <c r="I15" t="n" s="1323">
-        <v>0.35395217826414427</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="1311">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n" s="1316">
-        <v>0.8372395833333334</v>
-      </c>
-      <c r="C16" t="n" s="1317">
-        <v>0.8635671850330077</v>
-      </c>
-      <c r="D16" t="n" s="1318">
-        <v>0.9562398272676242</v>
-      </c>
-      <c r="E16" t="n" s="1319">
-        <v>0.38761568893367965</v>
-      </c>
-      <c r="F16" t="n" s="1320">
-        <v>6.329614948148165</v>
-      </c>
-      <c r="G16" t="n" s="1321">
-        <v>0.039353653841815946</v>
-      </c>
-      <c r="H16" t="n" s="1322">
-        <v>0.04585816385037547</v>
-      </c>
-      <c r="I16" t="n" s="1323">
-        <v>0.32372443186784966</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1311">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="1316">
-        <v>0.8449155524278678</v>
-      </c>
-      <c r="C17" t="n" s="1317">
-        <v>0.8660706648243028</v>
-      </c>
-      <c r="D17" t="n" s="1318">
-        <v>0.9562717060921951</v>
-      </c>
-      <c r="E17" t="n" s="1319">
-        <v>0.39271098027928913</v>
-      </c>
-      <c r="F17" t="n" s="1320">
-        <v>6.466624087158615</v>
-      </c>
-      <c r="G17" t="n" s="1321">
-        <v>0.03730645918959099</v>
-      </c>
-      <c r="H17" t="n" s="1322">
-        <v>0.0445945057001008</v>
-      </c>
-      <c r="I17" t="n" s="1323">
-        <v>0.32372443186784966</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="1311">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="1316">
-        <v>0.8366299736268776</v>
-      </c>
-      <c r="C18" t="n" s="1317">
-        <v>0.8648250556533228</v>
-      </c>
-      <c r="D18" t="n" s="1318">
-        <v>0.9620958453770062</v>
-      </c>
-      <c r="E18" t="n" s="1319">
-        <v>0.39016286436419295</v>
-      </c>
-      <c r="F18" t="n" s="1320">
-        <v>6.397820689575013</v>
-      </c>
-      <c r="G18" t="n" s="1321">
-        <v>0.04021850920462624</v>
-      </c>
-      <c r="H18" t="n" s="1322">
-        <v>0.05948928516808326</v>
-      </c>
-      <c r="I18" t="n" s="1323">
-        <v>0.3035732974661699</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1311">
-        <v>28</v>
-      </c>
-      <c r="B19" t="n" s="1316">
-        <v>0.8555711610486891</v>
-      </c>
-      <c r="C19" t="n" s="1317">
-        <v>0.8795116078268888</v>
-      </c>
-      <c r="D19" t="n" s="1318">
-        <v>0.9687396979489113</v>
-      </c>
-      <c r="E19" t="n" s="1319">
-        <v>0.421950438558746</v>
-      </c>
-      <c r="F19" t="n" s="1320">
-        <v>7.299554687087639</v>
-      </c>
-      <c r="G19" t="n" s="1321">
-        <v>0.034708893159609185</v>
-      </c>
-      <c r="H19" t="n" s="1322">
-        <v>0.05395925876765116</v>
-      </c>
-      <c r="I19" t="n" s="1323">
-        <v>0.34042861412544345</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1311">
-        <v>29</v>
-      </c>
-      <c r="B20" t="n" s="1316">
-        <v>0.8348135812748635</v>
-      </c>
-      <c r="C20" t="n" s="1317">
-        <v>0.8647180335657926</v>
-      </c>
-      <c r="D20" t="n" s="1318">
-        <v>0.9542183094158376</v>
-      </c>
-      <c r="E20" t="n" s="1319">
-        <v>0.38994513346113985</v>
-      </c>
-      <c r="F20" t="n" s="1320">
-        <v>6.391968244979169</v>
-      </c>
-      <c r="G20" t="n" s="1321">
-        <v>0.04012234400591408</v>
-      </c>
-      <c r="H20" t="n" s="1322">
-        <v>0.05603452952795113</v>
-      </c>
-      <c r="I20" t="n" s="1323">
-        <v>0.3035732974661699</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1311">
-        <v>30</v>
-      </c>
-      <c r="B21" t="n" s="1316">
-        <v>0.8442627374784111</v>
-      </c>
-      <c r="C21" t="n" s="1317">
-        <v>0.8724622474769917</v>
-      </c>
-      <c r="D21" t="n" s="1318">
-        <v>0.9577535237430527</v>
-      </c>
-      <c r="E21" t="n" s="1319">
-        <v>0.40620453097270176</v>
-      </c>
-      <c r="F21" t="n" s="1320">
-        <v>6.840815603361022</v>
-      </c>
-      <c r="G21" t="n" s="1321">
-        <v>0.037855071709416266</v>
-      </c>
-      <c r="H21" t="n" s="1322">
-        <v>0.055312044494176614</v>
-      </c>
-      <c r="I21" t="n" s="1323">
-        <v>0.35395217826414427</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="1327">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="s" s="1341">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s" s="1341">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s" s="1341">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s" s="1341">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s" s="1341">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s" s="1341">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s" s="1341">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1337">
-        <v>18</v>
-      </c>
-      <c r="B26" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C26" t="n" s="1343">
-        <v>0.6539242193704321</v>
-      </c>
-      <c r="D26" t="n" s="1344">
-        <v>0.7022425864494394</v>
-      </c>
-      <c r="E26" t="n" s="1345">
-        <v>0.6954691535875391</v>
-      </c>
-      <c r="F26" t="n" s="1346">
-        <v>0.5895944949208818</v>
-      </c>
-      <c r="G26" t="n" s="1347">
-        <v>3.611111111111111</v>
-      </c>
-      <c r="H26" t="n" s="1348">
-        <v>0.9936305084394236</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1337">
-        <v>19</v>
-      </c>
-      <c r="B27" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C27" t="n" s="1343">
-        <v>0.6111520642268006</v>
-      </c>
-      <c r="D27" t="n" s="1344">
-        <v>0.6646260192473581</v>
-      </c>
-      <c r="E27" t="n" s="1345">
-        <v>0.6551437391914946</v>
-      </c>
-      <c r="F27" t="n" s="1346">
-        <v>0.5264675585299067</v>
-      </c>
-      <c r="G27" t="n" s="1347">
-        <v>3.9722222222222223</v>
-      </c>
-      <c r="H27" t="n" s="1348">
-        <v>1.1828805304029435</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1337">
-        <v>20</v>
-      </c>
-      <c r="B28" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C28" t="n" s="1343">
-        <v>0.7348450009351566</v>
-      </c>
-      <c r="D28" t="n" s="1344">
-        <v>0.7792303905976804</v>
-      </c>
-      <c r="E28" t="n" s="1345">
-        <v>0.7758154186660146</v>
-      </c>
-      <c r="F28" t="n" s="1346">
-        <v>0.6900609896592591</v>
-      </c>
-      <c r="G28" t="n" s="1347">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H28" t="n" s="1348">
-        <v>0.8618916073713346</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1337">
-        <v>21</v>
-      </c>
-      <c r="B29" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C29" t="n" s="1343">
-        <v>0.5121635683207297</v>
-      </c>
-      <c r="D29" t="n" s="1344">
-        <v>0.5694384744867784</v>
-      </c>
-      <c r="E29" t="n" s="1345">
-        <v>0.5576016964632112</v>
-      </c>
-      <c r="F29" t="n" s="1346">
-        <v>0.4173763276069936</v>
-      </c>
-      <c r="G29" t="n" s="1347">
-        <v>3.861111111111111</v>
-      </c>
-      <c r="H29" t="n" s="1348">
-        <v>1.1502242707471761</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1337">
-        <v>22</v>
-      </c>
-      <c r="B30" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C30" t="n" s="1343">
-        <v>0.6872717456454593</v>
-      </c>
-      <c r="D30" t="n" s="1344">
-        <v>0.6779399753508843</v>
-      </c>
-      <c r="E30" t="n" s="1345">
-        <v>0.6864467488260468</v>
-      </c>
-      <c r="F30" t="n" s="1346">
-        <v>0.6624328066318232</v>
-      </c>
-      <c r="G30" t="n" s="1347">
-        <v>0.25</v>
-      </c>
-      <c r="H30" t="n" s="1348">
-        <v>0.43915503282683993</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="1337">
-        <v>23</v>
-      </c>
-      <c r="B31" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C31" t="n" s="1343">
-        <v>0.7445826642735797</v>
-      </c>
-      <c r="D31" t="n" s="1344">
-        <v>0.7308034725780648</v>
-      </c>
-      <c r="E31" t="n" s="1345">
-        <v>0.7409708352298573</v>
-      </c>
-      <c r="F31" t="n" s="1346">
-        <v>0.6465309145342202</v>
-      </c>
-      <c r="G31" t="n" s="1347">
-        <v>0.9722222222222222</v>
-      </c>
-      <c r="H31" t="n" s="1348">
-        <v>1.7482417471131406</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="1337">
-        <v>24</v>
-      </c>
-      <c r="B32" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C32" t="n" s="1343">
-        <v>0.7130875371389246</v>
-      </c>
-      <c r="D32" t="n" s="1344">
-        <v>0.699800149869011</v>
-      </c>
-      <c r="E32" t="n" s="1345">
-        <v>0.7096205227635274</v>
-      </c>
-      <c r="F32" t="n" s="1346">
-        <v>0.5911478963208647</v>
-      </c>
-      <c r="G32" t="n" s="1347">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="H32" t="n" s="1348">
-        <v>1.9475259030003023</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="1337">
-        <v>27</v>
-      </c>
-      <c r="B33" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C33" t="n" s="1343">
-        <v>0.7443538910272198</v>
-      </c>
-      <c r="D33" t="n" s="1344">
-        <v>0.7153046725071278</v>
-      </c>
-      <c r="E33" t="n" s="1345">
-        <v>0.6807666988248068</v>
-      </c>
-      <c r="F33" t="n" s="1346">
-        <v>0.6503591387457162</v>
-      </c>
-      <c r="G33" t="n" s="1347">
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="H33" t="n" s="1348">
-        <v>1.6872538033222497</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="1337">
-        <v>28</v>
-      </c>
-      <c r="B34" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C34" t="n" s="1343">
-        <v>0.5492634857776993</v>
-      </c>
-      <c r="D34" t="n" s="1344">
-        <v>0.5218867982297495</v>
-      </c>
-      <c r="E34" t="n" s="1345">
-        <v>0.4625202882855437</v>
-      </c>
-      <c r="F34" t="n" s="1346">
-        <v>0.4244563556212689</v>
-      </c>
-      <c r="G34" t="n" s="1347">
-        <v>1.9722222222222223</v>
-      </c>
-      <c r="H34" t="n" s="1348">
-        <v>1.5396866306605772</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="1337">
-        <v>29</v>
-      </c>
-      <c r="B35" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C35" t="n" s="1343">
-        <v>0.7513870521991917</v>
-      </c>
-      <c r="D35" t="n" s="1344">
-        <v>0.7166294998807199</v>
-      </c>
-      <c r="E35" t="n" s="1345">
-        <v>0.7035576825650174</v>
-      </c>
-      <c r="F35" t="n" s="1346">
-        <v>0.6741661545129944</v>
-      </c>
-      <c r="G35" t="n" s="1347">
-        <v>1.8611111111111112</v>
-      </c>
-      <c r="H35" t="n" s="1348">
-        <v>1.4570572648375468</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="1337">
-        <v>30</v>
-      </c>
-      <c r="B36" t="n" s="1342">
-        <v>36.0</v>
-      </c>
-      <c r="C36" t="n" s="1343">
-        <v>0.6601526010604563</v>
-      </c>
-      <c r="D36" t="n" s="1344">
-        <v>0.6176959328060702</v>
-      </c>
-      <c r="E36" t="n" s="1345">
-        <v>0.597037078701862</v>
-      </c>
-      <c r="F36" t="n" s="1346">
-        <v>0.5592238461838306</v>
-      </c>
-      <c r="G36" t="n" s="1347">
-        <v>1.75</v>
-      </c>
-      <c r="H36" t="n" s="1348">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="1352">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40" t="s" s="1366">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s" s="1366">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s" s="1366">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s" s="1366">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s" s="1366">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s" s="1366">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s" s="1366">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="1362">
-        <v>18</v>
-      </c>
-      <c r="B41" t="n" s="1367">
-        <v>0.0</v>
-      </c>
-      <c r="C41" t="n" s="1368">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D41" t="n" s="1369">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E41" t="n" s="1370">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F41" t="n" s="1371">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G41" t="n" s="1372">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H41" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="1362">
-        <v>19</v>
-      </c>
-      <c r="B42" t="n" s="1367">
-        <v>0.0</v>
-      </c>
-      <c r="C42" t="n" s="1368">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D42" t="n" s="1369">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E42" t="n" s="1370">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F42" t="n" s="1371">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="G42" t="n" s="1372">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="H42" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="1362">
-        <v>20</v>
-      </c>
-      <c r="B43" t="n" s="1367">
-        <v>0.0</v>
-      </c>
-      <c r="C43" t="n" s="1368">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D43" t="n" s="1369">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E43" t="n" s="1370">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F43" t="n" s="1371">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="G43" t="n" s="1372">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H43" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="1362">
-        <v>21</v>
-      </c>
-      <c r="B44" t="n" s="1367">
-        <v>0.0</v>
-      </c>
-      <c r="C44" t="n" s="1368">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D44" t="n" s="1369">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E44" t="n" s="1370">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="F44" t="n" s="1371">
-        <v>0.0</v>
-      </c>
-      <c r="G44" t="n" s="1372">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="H44" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="1362">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="1367">
-        <v>0.75</v>
-      </c>
-      <c r="C45" t="n" s="1368">
-        <v>0.25</v>
-      </c>
-      <c r="D45" t="n" s="1369">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="1370">
-        <v>0.0</v>
-      </c>
-      <c r="F45" t="n" s="1371">
-        <v>0.0</v>
-      </c>
-      <c r="G45" t="n" s="1372">
-        <v>0.0</v>
-      </c>
-      <c r="H45" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="1362">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="1367">
-        <v>0.75</v>
-      </c>
-      <c r="C46" t="n" s="1368">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="1369">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="1370">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F46" t="n" s="1371">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G46" t="n" s="1372">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H46" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="1362">
-        <v>24</v>
-      </c>
-      <c r="B47" t="n" s="1367">
-        <v>0.75</v>
-      </c>
-      <c r="C47" t="n" s="1368">
-        <v>0.0</v>
-      </c>
-      <c r="D47" t="n" s="1369">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="1370">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="F47" t="n" s="1371">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G47" t="n" s="1372">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H47" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="1362">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="1367">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C48" t="n" s="1368">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D48" t="n" s="1369">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n" s="1370">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="F48" t="n" s="1371">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G48" t="n" s="1372">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="1362">
-        <v>28</v>
-      </c>
-      <c r="B49" t="n" s="1367">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C49" t="n" s="1368">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D49" t="n" s="1369">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E49" t="n" s="1370">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F49" t="n" s="1371">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G49" t="n" s="1372">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="1362">
-        <v>29</v>
-      </c>
-      <c r="B50" t="n" s="1367">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C50" t="n" s="1368">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D50" t="n" s="1369">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E50" t="n" s="1370">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F50" t="n" s="1371">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G50" t="n" s="1372">
-        <v>0.0</v>
-      </c>
-      <c r="H50" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="1362">
-        <v>30</v>
-      </c>
-      <c r="B51" t="n" s="1367">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C51" t="n" s="1368">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D51" t="n" s="1369">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E51" t="n" s="1370">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F51" t="n" s="1371">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G51" t="n" s="1372">
-        <v>0.0</v>
-      </c>
-      <c r="H51" t="n" s="1373">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1375">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1389">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1403">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="1403">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1403">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1403">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s" s="1403">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="1403">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="1403">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="1403">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s" s="1403">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1404">
-        <v>0.8301500999117061</v>
-      </c>
-      <c r="B6" t="n" s="1405">
-        <v>0.8711455630798443</v>
-      </c>
-      <c r="C6" t="n" s="1406">
-        <v>0.9714525352472574</v>
-      </c>
-      <c r="D6" t="n" s="1407">
-        <v>0.4913047678076152</v>
-      </c>
-      <c r="E6" t="n" s="1408">
-        <v>6.760695121578516</v>
-      </c>
-      <c r="F6" t="n" s="1409">
-        <v>0.042002455318907096</v>
-      </c>
-      <c r="G6" t="n" s="1410">
-        <v>2.488095238095238</v>
-      </c>
-      <c r="H6" t="n" s="1411">
-        <v>0.9018122344049503</v>
-      </c>
-      <c r="I6" t="n" s="1412">
-        <v>0.34042861412544345</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1416">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s" s="1430">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="1430">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="1430">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="1430">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s" s="1430">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="1430">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="1430">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="1430">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1426">
-        <v>18</v>
-      </c>
-      <c r="B11" t="n" s="1431">
-        <v>0.8148000872875396</v>
-      </c>
-      <c r="C11" t="n" s="1432">
-        <v>0.8606140924356206</v>
-      </c>
-      <c r="D11" t="n" s="1433">
-        <v>0.9431407501926793</v>
-      </c>
-      <c r="E11" t="n" s="1434">
-        <v>0.5071595922245933</v>
-      </c>
-      <c r="F11" t="n" s="1435">
-        <v>6.174326425633248</v>
-      </c>
-      <c r="G11" t="n" s="1436">
-        <v>0.0439582383851845</v>
-      </c>
-      <c r="H11" t="n" s="1437">
-        <v>0.08637616951854385</v>
-      </c>
-      <c r="I11" t="n" s="1438">
-        <v>0.34042861412544345</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1426">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n" s="1431">
-        <v>0.8048053024026511</v>
-      </c>
-      <c r="C12" t="n" s="1432">
-        <v>0.8529924399839928</v>
-      </c>
-      <c r="D12" t="n" s="1433">
-        <v>0.9474788912252998</v>
-      </c>
-      <c r="E12" t="n" s="1434">
-        <v>0.49162758295216663</v>
-      </c>
-      <c r="F12" t="n" s="1435">
-        <v>5.802371251458855</v>
-      </c>
-      <c r="G12" t="n" s="1436">
-        <v>0.04475745204997774</v>
-      </c>
-      <c r="H12" t="n" s="1437">
-        <v>0.09191626318913769</v>
-      </c>
-      <c r="I12" t="n" s="1438">
-        <v>0.34042861412544345</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1426">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="1431">
-        <v>0.8055325034578147</v>
-      </c>
-      <c r="C13" t="n" s="1432">
-        <v>0.8480799623106582</v>
-      </c>
-      <c r="D13" t="n" s="1433">
-        <v>0.9428617810340245</v>
-      </c>
-      <c r="E13" t="n" s="1434">
-        <v>0.4819731026849359</v>
-      </c>
-      <c r="F13" t="n" s="1435">
-        <v>5.582410162673074</v>
-      </c>
-      <c r="G13" t="n" s="1436">
-        <v>0.046853702757594144</v>
-      </c>
-      <c r="H13" t="n" s="1437">
-        <v>0.0941198643505907</v>
-      </c>
-      <c r="I13" t="n" s="1438">
-        <v>0.28875699341812133</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1426">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="1431">
-        <v>0.8133547868061143</v>
-      </c>
-      <c r="C14" t="n" s="1432">
-        <v>0.8616514432475628</v>
-      </c>
-      <c r="D14" t="n" s="1433">
-        <v>0.9486462497237709</v>
-      </c>
-      <c r="E14" t="n" s="1434">
-        <v>0.5093276894797077</v>
-      </c>
-      <c r="F14" t="n" s="1435">
-        <v>6.228120216602</v>
-      </c>
-      <c r="G14" t="n" s="1436">
-        <v>0.04363882241223343</v>
-      </c>
-      <c r="H14" t="n" s="1437">
-        <v>0.08963510124986908</v>
-      </c>
-      <c r="I14" t="n" s="1438">
-        <v>0.34042861412544345</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="1426">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n" s="1431">
-        <v>0.8181281844998659</v>
-      </c>
-      <c r="C15" t="n" s="1432">
-        <v>0.8505912504526709</v>
-      </c>
-      <c r="D15" t="n" s="1433">
-        <v>0.9622819493049324</v>
-      </c>
-      <c r="E15" t="n" s="1434">
-        <v>0.4868746140757156</v>
-      </c>
-      <c r="F15" t="n" s="1435">
-        <v>5.6930484528499745</v>
-      </c>
-      <c r="G15" t="n" s="1436">
-        <v>0.04932987857604896</v>
-      </c>
-      <c r="H15" t="n" s="1437">
-        <v>0.06176994775731849</v>
-      </c>
-      <c r="I15" t="n" s="1438">
-        <v>0.35395217826414427</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="1426">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n" s="1431">
-        <v>0.7834943849569078</v>
-      </c>
-      <c r="C16" t="n" s="1432">
-        <v>0.8461386731947047</v>
-      </c>
-      <c r="D16" t="n" s="1433">
-        <v>0.9611488713490168</v>
-      </c>
-      <c r="E16" t="n" s="1434">
-        <v>0.4782317869170681</v>
-      </c>
-      <c r="F16" t="n" s="1435">
-        <v>5.499359005693848</v>
-      </c>
-      <c r="G16" t="n" s="1436">
-        <v>0.05534359028071251</v>
-      </c>
-      <c r="H16" t="n" s="1437">
-        <v>0.06483695309777654</v>
-      </c>
-      <c r="I16" t="n" s="1438">
-        <v>0.34042861412544345</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1426">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="1431">
-        <v>0.8026208026208025</v>
-      </c>
-      <c r="C17" t="n" s="1432">
-        <v>0.8490915157893211</v>
-      </c>
-      <c r="D17" t="n" s="1433">
-        <v>0.9605293645776979</v>
-      </c>
-      <c r="E17" t="n" s="1434">
-        <v>0.4839390063191191</v>
-      </c>
-      <c r="F17" t="n" s="1435">
-        <v>5.626532664683913</v>
-      </c>
-      <c r="G17" t="n" s="1436">
-        <v>0.05020074398156364</v>
-      </c>
-      <c r="H17" t="n" s="1437">
-        <v>0.06231926280398242</v>
-      </c>
-      <c r="I17" t="n" s="1438">
-        <v>0.35395217826414427</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1442">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="1456">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s" s="1456">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s" s="1456">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s" s="1456">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s" s="1456">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s" s="1456">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="1456">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1452">
-        <v>18</v>
-      </c>
-      <c r="B22" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C22" t="n" s="1458">
-        <v>0.6460575183698015</v>
-      </c>
-      <c r="D22" t="n" s="1459">
-        <v>0.7057428310638408</v>
-      </c>
-      <c r="E22" t="n" s="1460">
-        <v>0.6856508820108024</v>
-      </c>
-      <c r="F22" t="n" s="1461">
-        <v>0.539171533971294</v>
-      </c>
-      <c r="G22" t="n" s="1462">
-        <v>3.611111111111111</v>
-      </c>
-      <c r="H22" t="n" s="1463">
-        <v>0.9936305084394236</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="1452">
-        <v>19</v>
-      </c>
-      <c r="B23" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C23" t="n" s="1458">
-        <v>0.7094563471281069</v>
-      </c>
-      <c r="D23" t="n" s="1459">
-        <v>0.7500619109461135</v>
-      </c>
-      <c r="E23" t="n" s="1460">
-        <v>0.7241630358872377</v>
-      </c>
-      <c r="F23" t="n" s="1461">
-        <v>0.5952557205553364</v>
-      </c>
-      <c r="G23" t="n" s="1462">
-        <v>3.9722222222222223</v>
-      </c>
-      <c r="H23" t="n" s="1463">
-        <v>1.1828805304029435</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="1452">
-        <v>20</v>
-      </c>
-      <c r="B24" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C24" t="n" s="1458">
-        <v>0.7246765821693189</v>
-      </c>
-      <c r="D24" t="n" s="1459">
-        <v>0.7776100326784909</v>
-      </c>
-      <c r="E24" t="n" s="1460">
-        <v>0.7590386675113313</v>
-      </c>
-      <c r="F24" t="n" s="1461">
-        <v>0.6491962800021158</v>
-      </c>
-      <c r="G24" t="n" s="1462">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H24" t="n" s="1463">
-        <v>0.8618916073713346</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1452">
-        <v>21</v>
-      </c>
-      <c r="B25" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C25" t="n" s="1458">
-        <v>0.6613934925772667</v>
-      </c>
-      <c r="D25" t="n" s="1459">
-        <v>0.699556376127033</v>
-      </c>
-      <c r="E25" t="n" s="1460">
-        <v>0.6705742541677918</v>
-      </c>
-      <c r="F25" t="n" s="1461">
-        <v>0.5383840586151908</v>
-      </c>
-      <c r="G25" t="n" s="1462">
-        <v>3.861111111111111</v>
-      </c>
-      <c r="H25" t="n" s="1463">
-        <v>1.1502242707471761</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="1452">
-        <v>22</v>
-      </c>
-      <c r="B26" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C26" t="n" s="1458">
-        <v>0.8167689124354526</v>
-      </c>
-      <c r="D26" t="n" s="1459">
-        <v>0.763624045993724</v>
-      </c>
-      <c r="E26" t="n" s="1460">
-        <v>0.7682775034107997</v>
-      </c>
-      <c r="F26" t="n" s="1461">
-        <v>0.7914993377713215</v>
-      </c>
-      <c r="G26" t="n" s="1462">
-        <v>0.25</v>
-      </c>
-      <c r="H26" t="n" s="1463">
-        <v>0.43915503282683993</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1452">
-        <v>23</v>
-      </c>
-      <c r="B27" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C27" t="n" s="1458">
-        <v>0.8424732074088445</v>
-      </c>
-      <c r="D27" t="n" s="1459">
-        <v>0.7882855138395342</v>
-      </c>
-      <c r="E27" t="n" s="1460">
-        <v>0.7949101375423152</v>
-      </c>
-      <c r="F27" t="n" s="1461">
-        <v>0.7240508518804486</v>
-      </c>
-      <c r="G27" t="n" s="1462">
-        <v>0.9722222222222222</v>
-      </c>
-      <c r="H27" t="n" s="1463">
-        <v>1.7482417471131406</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1452">
-        <v>24</v>
-      </c>
-      <c r="B28" t="n" s="1457">
-        <v>36.0</v>
-      </c>
-      <c r="C28" t="n" s="1458">
-        <v>0.8290839958655978</v>
-      </c>
-      <c r="D28" t="n" s="1459">
-        <v>0.7720005176005613</v>
-      </c>
-      <c r="E28" t="n" s="1460">
-        <v>0.778688131930537</v>
-      </c>
-      <c r="F28" t="n" s="1461">
-        <v>0.6814257659573536</v>
-      </c>
-      <c r="G28" t="n" s="1462">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="H28" t="n" s="1463">
-        <v>1.9475259030003023</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="1467">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="1481">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s" s="1481">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s" s="1481">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s" s="1481">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s" s="1481">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s" s="1481">
-        <v>43</v>
-      </c>
-      <c r="H32" t="s" s="1481">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="1477">
-        <v>18</v>
-      </c>
-      <c r="B33" t="n" s="1482">
-        <v>0.0</v>
-      </c>
-      <c r="C33" t="n" s="1483">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D33" t="n" s="1484">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E33" t="n" s="1485">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F33" t="n" s="1486">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G33" t="n" s="1487">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H33" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="1477">
-        <v>19</v>
-      </c>
-      <c r="B34" t="n" s="1482">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="n" s="1483">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D34" t="n" s="1484">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E34" t="n" s="1485">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F34" t="n" s="1486">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="G34" t="n" s="1487">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="H34" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="1477">
-        <v>20</v>
-      </c>
-      <c r="B35" t="n" s="1482">
-        <v>0.0</v>
-      </c>
-      <c r="C35" t="n" s="1483">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D35" t="n" s="1484">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E35" t="n" s="1485">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F35" t="n" s="1486">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="G35" t="n" s="1487">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H35" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="1477">
-        <v>21</v>
-      </c>
-      <c r="B36" t="n" s="1482">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="1483">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D36" t="n" s="1484">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E36" t="n" s="1485">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="F36" t="n" s="1486">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n" s="1487">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="H36" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="1477">
-        <v>22</v>
-      </c>
-      <c r="B37" t="n" s="1482">
-        <v>0.75</v>
-      </c>
-      <c r="C37" t="n" s="1483">
-        <v>0.25</v>
-      </c>
-      <c r="D37" t="n" s="1484">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="n" s="1485">
-        <v>0.0</v>
-      </c>
-      <c r="F37" t="n" s="1486">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="1487">
-        <v>0.0</v>
-      </c>
-      <c r="H37" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="1477">
-        <v>23</v>
-      </c>
-      <c r="B38" t="n" s="1482">
-        <v>0.75</v>
-      </c>
-      <c r="C38" t="n" s="1483">
-        <v>0.0</v>
-      </c>
-      <c r="D38" t="n" s="1484">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="n" s="1485">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F38" t="n" s="1486">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G38" t="n" s="1487">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H38" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="1477">
-        <v>24</v>
-      </c>
-      <c r="B39" t="n" s="1482">
-        <v>0.75</v>
-      </c>
-      <c r="C39" t="n" s="1483">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n" s="1484">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="1485">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="F39" t="n" s="1486">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G39" t="n" s="1487">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H39" t="n" s="1488">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1490">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="1504">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="1518">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="1518">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1518">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="1518">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s" s="1518">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s" s="1518">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s" s="1518">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s" s="1518">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s" s="1518">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1519">
-        <v>0.8444983818770226</v>
-      </c>
-      <c r="B6" t="n" s="1520">
-        <v>0.8474132301640888</v>
-      </c>
-      <c r="C6" t="n" s="1521">
-        <v>0.8401339404268553</v>
-      </c>
-      <c r="D6" t="n" s="1522">
-        <v>0.5813117730240912</v>
-      </c>
-      <c r="E6" t="n" s="1523">
-        <v>5.5536481378784</v>
-      </c>
-      <c r="F6" t="n" s="1524">
-        <v>0.04329998794984645</v>
-      </c>
-      <c r="G6" t="n" s="1525">
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="H6" t="n" s="1526">
-        <v>1.2786401506759573</v>
-      </c>
-      <c r="I6" t="n" s="1527">
-        <v>0.5463070960377978</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="1531">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10" t="s" s="1545">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="1545">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="1545">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="1545">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s" s="1545">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s" s="1545">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="1545">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="1545">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="1541">
-        <v>27</v>
-      </c>
-      <c r="B11" t="n" s="1546">
-        <v>0.8148685695855508</v>
-      </c>
-      <c r="C11" t="n" s="1547">
-        <v>0.817439030470217</v>
-      </c>
-      <c r="D11" t="n" s="1548">
-        <v>0.8045993369885177</v>
-      </c>
-      <c r="E11" t="n" s="1549">
-        <v>0.5988029399288327</v>
-      </c>
-      <c r="F11" t="n" s="1550">
-        <v>4.477622092913238</v>
-      </c>
-      <c r="G11" t="n" s="1551">
-        <v>0.05654240338582593</v>
-      </c>
-      <c r="H11" t="n" s="1552">
-        <v>0.04393496872398668</v>
-      </c>
-      <c r="I11" t="n" s="1553">
-        <v>0.5331307687580308</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="1541">
-        <v>28</v>
-      </c>
-      <c r="B12" t="n" s="1546">
-        <v>0.8473238628210648</v>
-      </c>
-      <c r="C12" t="n" s="1547">
-        <v>0.8539262877551995</v>
-      </c>
-      <c r="D12" t="n" s="1548">
-        <v>0.8260730613877758</v>
-      </c>
-      <c r="E12" t="n" s="1549">
-        <v>0.6608582515981108</v>
-      </c>
-      <c r="F12" t="n" s="1550">
-        <v>5.845858742359685</v>
-      </c>
-      <c r="G12" t="n" s="1551">
-        <v>0.04639707850814558</v>
-      </c>
-      <c r="H12" t="n" s="1552">
-        <v>0.02291153685912622</v>
-      </c>
-      <c r="I12" t="n" s="1553">
-        <v>0.598847626282453</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="1541">
-        <v>29</v>
-      </c>
-      <c r="B13" t="n" s="1546">
-        <v>0.7560487059195615</v>
-      </c>
-      <c r="C13" t="n" s="1547">
-        <v>0.7555855788816249</v>
-      </c>
-      <c r="D13" t="n" s="1548">
-        <v>0.6796881799871759</v>
-      </c>
-      <c r="E13" t="n" s="1549">
-        <v>0.5075033190158158</v>
-      </c>
-      <c r="F13" t="n" s="1550">
-        <v>3.0914116091197386</v>
-      </c>
-      <c r="G13" t="n" s="1551">
-        <v>0.06972315111281761</v>
-      </c>
-      <c r="H13" t="n" s="1552">
-        <v>0.004533502729646851</v>
-      </c>
-      <c r="I13" t="n" s="1553">
-        <v>0.5422693496203315</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="1541">
-        <v>30</v>
-      </c>
-      <c r="B14" t="n" s="1546">
-        <v>0.7893766326896481</v>
-      </c>
-      <c r="C14" t="n" s="1547">
-        <v>0.7911706391586569</v>
-      </c>
-      <c r="D14" t="n" s="1548">
-        <v>0.7180434826987558</v>
-      </c>
-      <c r="E14" t="n" s="1549">
-        <v>0.558082581553605</v>
-      </c>
-      <c r="F14" t="n" s="1550">
-        <v>3.7885986720025677</v>
-      </c>
-      <c r="G14" t="n" s="1551">
-        <v>0.060319700104385914</v>
-      </c>
-      <c r="H14" t="n" s="1552">
-        <v>0.0012672200688529317</v>
-      </c>
-      <c r="I14" t="n" s="1553">
-        <v>0.5422693496203315</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="1557">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="1571">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s" s="1571">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s" s="1571">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s" s="1571">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s" s="1571">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s" s="1571">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="1571">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="1567">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n" s="1572">
-        <v>36.0</v>
-      </c>
-      <c r="C19" t="n" s="1573">
-        <v>0.825144435087365</v>
-      </c>
-      <c r="D19" t="n" s="1574">
-        <v>0.812402577518656</v>
-      </c>
-      <c r="E19" t="n" s="1575">
-        <v>0.7013539318107984</v>
-      </c>
-      <c r="F19" t="n" s="1576">
-        <v>0.6592171939415405</v>
-      </c>
-      <c r="G19" t="n" s="1577">
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="H19" t="n" s="1578">
-        <v>1.6872538033222497</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="1567">
-        <v>28</v>
-      </c>
-      <c r="B20" t="n" s="1572">
-        <v>36.0</v>
-      </c>
-      <c r="C20" t="n" s="1573">
-        <v>0.7578907870147142</v>
-      </c>
-      <c r="D20" t="n" s="1574">
-        <v>0.7562094394942044</v>
-      </c>
-      <c r="E20" t="n" s="1575">
-        <v>0.6159831124471187</v>
-      </c>
-      <c r="F20" t="n" s="1576">
-        <v>0.5736173094879204</v>
-      </c>
-      <c r="G20" t="n" s="1577">
-        <v>1.9722222222222223</v>
-      </c>
-      <c r="H20" t="n" s="1578">
-        <v>1.5396866306605772</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="1567">
-        <v>29</v>
-      </c>
-      <c r="B21" t="n" s="1572">
-        <v>36.0</v>
-      </c>
-      <c r="C21" t="n" s="1573">
-        <v>0.8873475746145895</v>
-      </c>
-      <c r="D21" t="n" s="1574">
-        <v>0.8950774052092756</v>
-      </c>
-      <c r="E21" t="n" s="1575">
-        <v>0.8914361931257052</v>
-      </c>
-      <c r="F21" t="n" s="1576">
-        <v>0.7941072728639068</v>
-      </c>
-      <c r="G21" t="n" s="1577">
-        <v>1.8611111111111112</v>
-      </c>
-      <c r="H21" t="n" s="1578">
-        <v>1.4570572648375468</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="1567">
-        <v>30</v>
-      </c>
-      <c r="B22" t="n" s="1572">
-        <v>36.0</v>
-      </c>
-      <c r="C22" t="n" s="1573">
-        <v>0.8416679826779603</v>
-      </c>
-      <c r="D22" t="n" s="1574">
-        <v>0.8492762093969264</v>
-      </c>
-      <c r="E22" t="n" s="1575">
-        <v>0.8278519893367312</v>
-      </c>
-      <c r="F22" t="n" s="1576">
-        <v>0.7125379426361675</v>
-      </c>
-      <c r="G22" t="n" s="1577">
-        <v>1.75</v>
-      </c>
-      <c r="H22" t="n" s="1578">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="1582">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="1596">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s" s="1596">
-        <v>39</v>
-      </c>
-      <c r="D26" t="s" s="1596">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s" s="1596">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s" s="1596">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="1596">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="1592">
-        <v>27</v>
-      </c>
-      <c r="B27" t="n" s="1597">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C27" t="n" s="1598">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D27" t="n" s="1599">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="1600">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="F27" t="n" s="1601">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G27" t="n" s="1602">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="1592">
-        <v>28</v>
-      </c>
-      <c r="B28" t="n" s="1597">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C28" t="n" s="1598">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D28" t="n" s="1599">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E28" t="n" s="1600">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F28" t="n" s="1601">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G28" t="n" s="1602">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="1592">
-        <v>29</v>
-      </c>
-      <c r="B29" t="n" s="1597">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C29" t="n" s="1598">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D29" t="n" s="1599">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E29" t="n" s="1600">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F29" t="n" s="1601">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G29" t="n" s="1602">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="1592">
-        <v>30</v>
-      </c>
-      <c r="B30" t="n" s="1597">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C30" t="n" s="1598">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D30" t="n" s="1599">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E30" t="n" s="1600">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F30" t="n" s="1601">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G30" t="n" s="1602">
         <v>0.0</v>
       </c>
     </row>
@@ -13896,31 +7217,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="374">
-        <v>0.7013038324772816</v>
+        <v>0.9089108910891088</v>
       </c>
       <c r="B6" t="n" s="375">
-        <v>0.7032096562819261</v>
+        <v>0.9091200372063379</v>
       </c>
       <c r="C6" t="n" s="376">
-        <v>0.5422693496203314</v>
+        <v>0.8333822860566155</v>
       </c>
       <c r="D6" t="n" s="377">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
       <c r="E6" t="n" s="378">
-        <v>2.3693818588313524</v>
+        <v>10.003525631611934</v>
       </c>
       <c r="F6" t="n" s="379">
-        <v>0.09897826581956674</v>
+        <v>0.030321181490861947</v>
       </c>
       <c r="G6" t="n" s="380">
-        <v>1.6388888888888888</v>
+        <v>1.8055555555555556</v>
       </c>
       <c r="H6" t="n" s="381">
-        <v>1.4172967786353565</v>
+        <v>1.4156158567804522</v>
       </c>
       <c r="I6" t="n" s="382">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566155</v>
       </c>
     </row>
     <row r="7">
@@ -13967,48 +7288,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="396">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="401">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
       <c r="C11" t="n" s="402">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
       <c r="D11" t="n" s="403">
-        <v>0.294056047537657</v>
+        <v>0.6945260347129505</v>
       </c>
       <c r="E11" t="n" s="404">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
       <c r="F11" s="405"/>
       <c r="G11" s="406"/>
       <c r="H11" t="n" s="407">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
       <c r="I11" t="n" s="408">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="396">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="401">
-        <v>0.294056047537657</v>
+        <v>0.6945260347129505</v>
       </c>
       <c r="C12" t="n" s="402">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
       <c r="D12" s="403"/>
       <c r="E12" s="404"/>
       <c r="F12" s="405"/>
       <c r="G12" s="406"/>
       <c r="H12" t="n" s="407">
-        <v>0.294056047537657</v>
+        <v>0.6945260347129505</v>
       </c>
       <c r="I12" t="n" s="408">
-        <v>0.5422693496203315</v>
+        <v>0.8333822860566156</v>
       </c>
     </row>
     <row r="13">
@@ -14052,54 +7373,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="422">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="427">
         <v>36.0</v>
       </c>
       <c r="C17" t="n" s="428">
-        <v>0.8897849445400414</v>
+        <v>0.9561671271750662</v>
       </c>
       <c r="D17" t="n" s="429">
-        <v>0.8781427417055645</v>
+        <v>0.9574398900339947</v>
       </c>
       <c r="E17" t="n" s="430">
-        <v>0.6466550073872421</v>
+        <v>0.8740447130351988</v>
       </c>
       <c r="F17" t="n" s="431">
-        <v>0.5422693496203312</v>
+        <v>0.8333822860566157</v>
       </c>
       <c r="G17" t="n" s="432">
-        <v>1.3055555555555556</v>
+        <v>1.8611111111111112</v>
       </c>
       <c r="H17" t="n" s="433">
-        <v>1.6872538033222497</v>
+        <v>1.4570572648375468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="422">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="427">
         <v>36.0</v>
       </c>
       <c r="C18" t="n" s="428">
-        <v>0.8659557723668877</v>
+        <v>0.9586943030077518</v>
       </c>
       <c r="D18" t="n" s="429">
-        <v>0.8781427417055645</v>
+        <v>0.9574398900339947</v>
       </c>
       <c r="E18" t="n" s="430">
-        <v>0.6466550073872422</v>
+        <v>0.8740447130351988</v>
       </c>
       <c r="F18" t="n" s="431">
-        <v>0.5422693496203312</v>
+        <v>0.8333822860566155</v>
       </c>
       <c r="G18" t="n" s="432">
-        <v>1.9722222222222223</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n" s="433">
-        <v>1.5396866306605772</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
@@ -14140,22 +7461,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="447">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="452">
-        <v>0.5833333333333334</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C23" t="n" s="453">
-        <v>0.05555555555555555</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D23" t="n" s="454">
-        <v>0.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E23" t="n" s="455">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F23" t="n" s="456">
         <v>0.19444444444444445</v>
-      </c>
-      <c r="F23" t="n" s="456">
-        <v>0.16666666666666666</v>
       </c>
       <c r="G23" t="n" s="457">
         <v>0.0</v>
@@ -14163,22 +7484,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="447">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="452">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C24" t="n" s="453">
-        <v>0.16666666666666666</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D24" t="n" s="454">
-        <v>0.027777777777777776</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E24" t="n" s="455">
-        <v>0.3611111111111111</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F24" t="n" s="456">
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="G24" t="n" s="457">
         <v>0.0</v>
@@ -15072,31 +8393,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="716">
-        <v>0.9089108910891088</v>
+        <v>0.7013038324772816</v>
       </c>
       <c r="B6" t="n" s="717">
-        <v>0.9091200372063379</v>
+        <v>0.7032096562819261</v>
       </c>
       <c r="C6" t="n" s="718">
-        <v>0.8333822860566155</v>
+        <v>0.5422693496203314</v>
       </c>
       <c r="D6" t="n" s="719">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
       <c r="E6" t="n" s="720">
-        <v>10.003525631611934</v>
+        <v>2.3693818588313524</v>
       </c>
       <c r="F6" t="n" s="721">
-        <v>0.030321181490861947</v>
+        <v>0.09897826581956674</v>
       </c>
       <c r="G6" t="n" s="722">
-        <v>1.8055555555555556</v>
+        <v>1.6388888888888888</v>
       </c>
       <c r="H6" t="n" s="723">
-        <v>1.4156158567804522</v>
+        <v>1.4172967786353565</v>
       </c>
       <c r="I6" t="n" s="724">
-        <v>0.8333822860566155</v>
+        <v>0.5422693496203315</v>
       </c>
     </row>
     <row r="7">
@@ -15143,48 +8464,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="738">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="743">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
       <c r="C11" t="n" s="744">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
       <c r="D11" t="n" s="745">
-        <v>0.6945260347129505</v>
+        <v>0.294056047537657</v>
       </c>
       <c r="E11" t="n" s="746">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
       <c r="F11" s="747"/>
       <c r="G11" s="748"/>
       <c r="H11" t="n" s="749">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
       <c r="I11" t="n" s="750">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="738">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="743">
-        <v>0.6945260347129505</v>
+        <v>0.294056047537657</v>
       </c>
       <c r="C12" t="n" s="744">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
       <c r="D12" s="745"/>
       <c r="E12" s="746"/>
       <c r="F12" s="747"/>
       <c r="G12" s="748"/>
       <c r="H12" t="n" s="749">
-        <v>0.6945260347129505</v>
+        <v>0.294056047537657</v>
       </c>
       <c r="I12" t="n" s="750">
-        <v>0.8333822860566156</v>
+        <v>0.5422693496203315</v>
       </c>
     </row>
     <row r="13">
@@ -15228,54 +8549,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="764">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="769">
         <v>36.0</v>
       </c>
       <c r="C17" t="n" s="770">
-        <v>0.9561671271750662</v>
+        <v>0.8897849445400414</v>
       </c>
       <c r="D17" t="n" s="771">
-        <v>0.9574398900339947</v>
+        <v>0.8781427417055645</v>
       </c>
       <c r="E17" t="n" s="772">
-        <v>0.8740447130351988</v>
+        <v>0.6466550073872421</v>
       </c>
       <c r="F17" t="n" s="773">
-        <v>0.8333822860566157</v>
+        <v>0.5422693496203312</v>
       </c>
       <c r="G17" t="n" s="774">
-        <v>1.8611111111111112</v>
+        <v>1.3055555555555556</v>
       </c>
       <c r="H17" t="n" s="775">
-        <v>1.4570572648375468</v>
+        <v>1.6872538033222497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="764">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="769">
         <v>36.0</v>
       </c>
       <c r="C18" t="n" s="770">
-        <v>0.9586943030077518</v>
+        <v>0.8659557723668877</v>
       </c>
       <c r="D18" t="n" s="771">
-        <v>0.9574398900339947</v>
+        <v>0.8781427417055645</v>
       </c>
       <c r="E18" t="n" s="772">
-        <v>0.8740447130351988</v>
+        <v>0.6466550073872422</v>
       </c>
       <c r="F18" t="n" s="773">
-        <v>0.8333822860566155</v>
+        <v>0.5422693496203312</v>
       </c>
       <c r="G18" t="n" s="774">
-        <v>1.75</v>
+        <v>1.9722222222222223</v>
       </c>
       <c r="H18" t="n" s="775">
-        <v>1.5</v>
+        <v>1.5396866306605772</v>
       </c>
     </row>
     <row r="19">
@@ -15316,22 +8637,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="789">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="794">
-        <v>0.2777777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C23" t="n" s="795">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D23" t="n" s="796">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n" s="797">
-        <v>0.1111111111111111</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="F23" t="n" s="798">
-        <v>0.19444444444444445</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G23" t="n" s="799">
         <v>0.0</v>
@@ -15339,22 +8660,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="789">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="794">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C24" t="n" s="795">
-        <v>0.05555555555555555</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D24" t="n" s="796">
-        <v>0.3333333333333333</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="E24" t="n" s="797">
-        <v>0.08333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F24" t="n" s="798">
-        <v>0.19444444444444445</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G24" t="n" s="799">
         <v>0.0</v>
@@ -15436,31 +8757,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="830">
-        <v>0.8572197622350899</v>
+        <v>0.8192316350266375</v>
       </c>
       <c r="B6" t="n" s="831">
-        <v>0.8787726684273551</v>
+        <v>0.8482508516963234</v>
       </c>
       <c r="C6" t="n" s="832">
-        <v>0.9649807582986313</v>
+        <v>0.9465527088417135</v>
       </c>
       <c r="D6" t="n" s="833">
-        <v>0.39722608512266516</v>
+        <v>0.38313164507264297</v>
       </c>
       <c r="E6" t="n" s="834">
-        <v>7.248964874730043</v>
+        <v>5.5898228173170725</v>
       </c>
       <c r="F6" t="n" s="835">
-        <v>0.03457301762891574</v>
+        <v>0.04277548540053864</v>
       </c>
       <c r="G6" t="n" s="836">
-        <v>2.20959595959596</v>
+        <v>2.7808641975308643</v>
       </c>
       <c r="H6" t="n" s="837">
-        <v>0.8885522614586624</v>
+        <v>0.8080224345598992</v>
       </c>
       <c r="I6" t="n" s="838">
-        <v>0.32372443186784966</v>
+        <v>0.27641586603434</v>
       </c>
     </row>
     <row r="7">
@@ -15510,28 +8831,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="857">
-        <v>0.8446931559107375</v>
+        <v>0.801962463589075</v>
       </c>
       <c r="C11" t="n" s="858">
-        <v>0.8658752800151401</v>
+        <v>0.8319571687121188</v>
       </c>
       <c r="D11" t="n" s="859">
-        <v>0.9518519250457432</v>
+        <v>0.9171929959439864</v>
       </c>
       <c r="E11" t="n" s="860">
-        <v>0.39230957407882333</v>
+        <v>0.3822805853508737</v>
       </c>
       <c r="F11" t="n" s="861">
-        <v>6.455747159158135</v>
+        <v>4.950863790713325</v>
       </c>
       <c r="G11" t="n" s="862">
-        <v>0.03743620523689523</v>
+        <v>0.045730471047795644</v>
       </c>
       <c r="H11" t="n" s="863">
-        <v>0.05570082897207356</v>
+        <v>0.06898110797921587</v>
       </c>
       <c r="I11" t="n" s="864">
-        <v>0.32372443186784966</v>
+        <v>0.28385053536815297</v>
       </c>
     </row>
     <row r="12">
@@ -15539,28 +8860,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="857">
-        <v>0.8469442527413541</v>
+        <v>0.7949866473736288</v>
       </c>
       <c r="C12" t="n" s="858">
-        <v>0.868850314646212</v>
+        <v>0.8267516530187253</v>
       </c>
       <c r="D12" t="n" s="859">
-        <v>0.9522767417912595</v>
+        <v>0.9193986448579218</v>
       </c>
       <c r="E12" t="n" s="860">
-        <v>0.3984917298146772</v>
+        <v>0.3736327991742489</v>
       </c>
       <c r="F12" t="n" s="861">
-        <v>6.624875327015921</v>
+        <v>4.772060844586781</v>
       </c>
       <c r="G12" t="n" s="862">
-        <v>0.03653018975509858</v>
+        <v>0.04665660373335602</v>
       </c>
       <c r="H12" t="n" s="863">
-        <v>0.05497999609572982</v>
+        <v>0.06974950665288594</v>
       </c>
       <c r="I12" t="n" s="864">
-        <v>0.35395217826414427</v>
+        <v>0.26681041534577443</v>
       </c>
     </row>
     <row r="13">
@@ -15568,28 +8889,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="857">
-        <v>0.8416976485316331</v>
+        <v>0.7982725628917015</v>
       </c>
       <c r="C13" t="n" s="858">
-        <v>0.8595527572544532</v>
+        <v>0.8263095124114044</v>
       </c>
       <c r="D13" t="n" s="859">
-        <v>0.9506908186721988</v>
+        <v>0.9171113830408545</v>
       </c>
       <c r="E13" t="n" s="860">
-        <v>0.3796568885626525</v>
+        <v>0.3729113874349686</v>
       </c>
       <c r="F13" t="n" s="861">
-        <v>6.120111299099943</v>
+        <v>4.757367682498573</v>
       </c>
       <c r="G13" t="n" s="862">
-        <v>0.03821475077175365</v>
+        <v>0.04724433191988554</v>
       </c>
       <c r="H13" t="n" s="863">
-        <v>0.056470654757965734</v>
+        <v>0.06786422282356855</v>
       </c>
       <c r="I13" t="n" s="864">
-        <v>0.30234458675080533</v>
+        <v>0.26681041534577443</v>
       </c>
     </row>
     <row r="14">
@@ -15597,28 +8918,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="857">
-        <v>0.8538137870032819</v>
+        <v>0.8014367726597942</v>
       </c>
       <c r="C14" t="n" s="858">
-        <v>0.8760657211413513</v>
+        <v>0.8336885397482499</v>
       </c>
       <c r="D14" t="n" s="859">
-        <v>0.9535836351224158</v>
+        <v>0.9201737799975958</v>
       </c>
       <c r="E14" t="n" s="860">
-        <v>0.4141354812144833</v>
+        <v>0.3852214022496673</v>
       </c>
       <c r="F14" t="n" s="861">
-        <v>7.068792663412633</v>
+        <v>5.0128147422088265</v>
       </c>
       <c r="G14" t="n" s="862">
-        <v>0.03514847254161999</v>
+        <v>0.045583392793273156</v>
       </c>
       <c r="H14" t="n" s="863">
-        <v>0.051030002940421856</v>
+        <v>0.07018125505829786</v>
       </c>
       <c r="I14" t="n" s="864">
-        <v>0.35395217826414427</v>
+        <v>0.28385053536815297</v>
       </c>
     </row>
     <row r="15">
@@ -15626,28 +8947,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="857">
-        <v>0.8526830417623844</v>
+        <v>0.8056614455557651</v>
       </c>
       <c r="C15" t="n" s="858">
-        <v>0.8678056233757021</v>
+        <v>0.8232736864168257</v>
       </c>
       <c r="D15" t="n" s="859">
-        <v>0.9567519147601549</v>
+        <v>0.9299743517070789</v>
       </c>
       <c r="E15" t="n" s="860">
-        <v>0.39630362610893105</v>
+        <v>0.36801193635296686</v>
       </c>
       <c r="F15" t="n" s="861">
-        <v>6.56461829569379</v>
+        <v>4.6584669239386445</v>
       </c>
       <c r="G15" t="n" s="862">
-        <v>0.037051159276863345</v>
+        <v>0.0482944618201051</v>
       </c>
       <c r="H15" t="n" s="863">
-        <v>0.04389388721171938</v>
+        <v>0.05450340455901911</v>
       </c>
       <c r="I15" t="n" s="864">
-        <v>0.35395217826414427</v>
+        <v>0.2735512315252719</v>
       </c>
     </row>
     <row r="16">
@@ -15655,28 +8976,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="857">
-        <v>0.8372395833333334</v>
+        <v>0.7741768682859986</v>
       </c>
       <c r="C16" t="n" s="858">
-        <v>0.8635671850330077</v>
+        <v>0.8184677876977605</v>
       </c>
       <c r="D16" t="n" s="859">
-        <v>0.9562398272676242</v>
+        <v>0.9306172452831366</v>
       </c>
       <c r="E16" t="n" s="860">
-        <v>0.38761568893367965</v>
+        <v>0.3604433000388079</v>
       </c>
       <c r="F16" t="n" s="861">
-        <v>6.329614948148165</v>
+        <v>4.508664205199375</v>
       </c>
       <c r="G16" t="n" s="862">
-        <v>0.039353653841815946</v>
+        <v>0.05550347703531016</v>
       </c>
       <c r="H16" t="n" s="863">
-        <v>0.04585816385037547</v>
+        <v>0.05551417850531977</v>
       </c>
       <c r="I16" t="n" s="864">
-        <v>0.32372443186784966</v>
+        <v>0.26714683857099786</v>
       </c>
     </row>
     <row r="17">
@@ -15684,531 +9005,525 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="857">
-        <v>0.8449155524278678</v>
+        <v>0.7847540257054217</v>
       </c>
       <c r="C17" t="n" s="858">
-        <v>0.8660706648243028</v>
+        <v>0.8204159876535153</v>
       </c>
       <c r="D17" t="n" s="859">
-        <v>0.9562717060921951</v>
+        <v>0.9293260952596999</v>
       </c>
       <c r="E17" t="n" s="860">
-        <v>0.39271098027928913</v>
+        <v>0.36348425769808085</v>
       </c>
       <c r="F17" t="n" s="861">
-        <v>6.466624087158615</v>
+        <v>4.568424421159644</v>
       </c>
       <c r="G17" t="n" s="862">
-        <v>0.03730645918959099</v>
+        <v>0.05325429063861241</v>
       </c>
       <c r="H17" t="n" s="863">
-        <v>0.0445945057001008</v>
+        <v>0.05496811914141832</v>
       </c>
       <c r="I17" t="n" s="864">
-        <v>0.32372443186784966</v>
+        <v>0.27607944280911656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="852">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n" s="857">
-        <v>0.8366299736268776</v>
+        <v>0.8119420705690292</v>
       </c>
       <c r="C18" t="n" s="858">
-        <v>0.8648250556533228</v>
+        <v>0.8495899035580471</v>
       </c>
       <c r="D18" t="n" s="859">
-        <v>0.9620958453770062</v>
+        <v>0.9496908341479438</v>
       </c>
       <c r="E18" t="n" s="860">
-        <v>0.39016286436419295</v>
+        <v>0.41385456661525033</v>
       </c>
       <c r="F18" t="n" s="861">
-        <v>6.397820689575013</v>
+        <v>5.648489853112526</v>
       </c>
       <c r="G18" t="n" s="862">
-        <v>0.04021850920462624</v>
+        <v>0.044973636277943846</v>
       </c>
       <c r="H18" t="n" s="863">
-        <v>0.05948928516808326</v>
+        <v>0.07624023483107752</v>
       </c>
       <c r="I18" t="n" s="864">
-        <v>0.3035732974661699</v>
+        <v>0.28132232408430835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="852">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n" s="857">
-        <v>0.8555711610486891</v>
+        <v>0.8259038565711989</v>
       </c>
       <c r="C19" t="n" s="858">
-        <v>0.8795116078268888</v>
+        <v>0.8570293831773028</v>
       </c>
       <c r="D19" t="n" s="859">
-        <v>0.9687396979489113</v>
+        <v>0.952182347121666</v>
       </c>
       <c r="E19" t="n" s="860">
-        <v>0.421950438558746</v>
+        <v>0.4283445707389227</v>
       </c>
       <c r="F19" t="n" s="861">
-        <v>7.299554687087639</v>
+        <v>5.994444188767369</v>
       </c>
       <c r="G19" t="n" s="862">
-        <v>0.034708893159609185</v>
+        <v>0.041005487540860676</v>
       </c>
       <c r="H19" t="n" s="863">
-        <v>0.05395925876765116</v>
+        <v>0.0710004615338735</v>
       </c>
       <c r="I19" t="n" s="864">
-        <v>0.34042861412544345</v>
+        <v>0.30275691995236437</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="852">
-        <v>29</v>
-      </c>
-      <c r="B20" t="n" s="857">
-        <v>0.8348135812748635</v>
-      </c>
-      <c r="C20" t="n" s="858">
-        <v>0.8647180335657926</v>
-      </c>
-      <c r="D20" t="n" s="859">
-        <v>0.9542183094158376</v>
-      </c>
-      <c r="E20" t="n" s="860">
-        <v>0.38994513346113985</v>
-      </c>
-      <c r="F20" t="n" s="861">
-        <v>6.391968244979169</v>
-      </c>
-      <c r="G20" t="n" s="862">
-        <v>0.04012234400591408</v>
-      </c>
-      <c r="H20" t="n" s="863">
-        <v>0.05603452952795113</v>
-      </c>
-      <c r="I20" t="n" s="864">
-        <v>0.3035732974661699</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="852">
-        <v>30</v>
-      </c>
-      <c r="B21" t="n" s="857">
-        <v>0.8442627374784111</v>
-      </c>
-      <c r="C21" t="n" s="858">
-        <v>0.8724622474769917</v>
-      </c>
-      <c r="D21" t="n" s="859">
-        <v>0.9577535237430527</v>
-      </c>
-      <c r="E21" t="n" s="860">
-        <v>0.40620453097270176</v>
-      </c>
-      <c r="F21" t="n" s="861">
-        <v>6.840815603361022</v>
-      </c>
-      <c r="G21" t="n" s="862">
-        <v>0.037855071709416266</v>
-      </c>
-      <c r="H21" t="n" s="863">
-        <v>0.055312044494176614</v>
-      </c>
-      <c r="I21" t="n" s="864">
-        <v>0.35395217826414427</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="868">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="882">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s" s="882">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s" s="882">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s" s="882">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s" s="882">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s" s="882">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="882">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="868">
-        <v>31</v>
+      <c r="A24" t="s" s="878">
+        <v>18</v>
+      </c>
+      <c r="B24" t="n" s="883">
+        <v>36.0</v>
+      </c>
+      <c r="C24" t="n" s="884">
+        <v>0.6223220354985404</v>
+      </c>
+      <c r="D24" t="n" s="885">
+        <v>0.6760056045524259</v>
+      </c>
+      <c r="E24" t="n" s="886">
+        <v>0.670361258135953</v>
+      </c>
+      <c r="F24" t="n" s="887">
+        <v>0.5272344302851021</v>
+      </c>
+      <c r="G24" t="n" s="888">
+        <v>3.611111111111111</v>
+      </c>
+      <c r="H24" t="n" s="889">
+        <v>0.9936305084394236</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25"/>
-      <c r="B25" t="s" s="882">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s" s="882">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s" s="882">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s" s="882">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s" s="882">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s" s="882">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s" s="882">
-        <v>10</v>
+      <c r="A25" t="s" s="878">
+        <v>19</v>
+      </c>
+      <c r="B25" t="n" s="883">
+        <v>36.0</v>
+      </c>
+      <c r="C25" t="n" s="884">
+        <v>0.6776640437114265</v>
+      </c>
+      <c r="D25" t="n" s="885">
+        <v>0.7160377259215347</v>
+      </c>
+      <c r="E25" t="n" s="886">
+        <v>0.7060471448388647</v>
+      </c>
+      <c r="F25" t="n" s="887">
+        <v>0.5736462856500842</v>
+      </c>
+      <c r="G25" t="n" s="888">
+        <v>3.9722222222222223</v>
+      </c>
+      <c r="H25" t="n" s="889">
+        <v>1.1828805304029435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="878">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C26" t="n" s="884">
-        <v>0.6539242193704321</v>
+        <v>0.6716057256822007</v>
       </c>
       <c r="D26" t="n" s="885">
-        <v>0.7022425864494394</v>
+        <v>0.7193772675931398</v>
       </c>
       <c r="E26" t="n" s="886">
-        <v>0.6954691535875391</v>
+        <v>0.7153889055086758</v>
       </c>
       <c r="F26" t="n" s="887">
-        <v>0.5895944949208818</v>
+        <v>0.5982025754677759</v>
       </c>
       <c r="G26" t="n" s="888">
-        <v>3.611111111111111</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H26" t="n" s="889">
-        <v>0.9936305084394236</v>
+        <v>0.8618916073713346</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="878">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B27" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C27" t="n" s="884">
-        <v>0.6111520642268006</v>
+        <v>0.6289686772974729</v>
       </c>
       <c r="D27" t="n" s="885">
-        <v>0.6646260192473581</v>
+        <v>0.6623920465142947</v>
       </c>
       <c r="E27" t="n" s="886">
-        <v>0.6551437391914946</v>
+        <v>0.6495089447081389</v>
       </c>
       <c r="F27" t="n" s="887">
-        <v>0.5264675585299067</v>
+        <v>0.5180050181008302</v>
       </c>
       <c r="G27" t="n" s="888">
-        <v>3.9722222222222223</v>
+        <v>3.861111111111111</v>
       </c>
       <c r="H27" t="n" s="889">
-        <v>1.1828805304029435</v>
+        <v>1.1502242707471761</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="878">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C28" t="n" s="884">
-        <v>0.7348450009351566</v>
+        <v>0.7850463307519996</v>
       </c>
       <c r="D28" t="n" s="885">
-        <v>0.7792303905976804</v>
+        <v>0.7420576873388158</v>
       </c>
       <c r="E28" t="n" s="886">
-        <v>0.7758154186660146</v>
+        <v>0.7576314997831833</v>
       </c>
       <c r="F28" t="n" s="887">
-        <v>0.6900609896592591</v>
+        <v>0.7601362597728121</v>
       </c>
       <c r="G28" t="n" s="888">
-        <v>3.6666666666666665</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n" s="889">
-        <v>0.8618916073713346</v>
+        <v>0.43915503282683993</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="878">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B29" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C29" t="n" s="884">
-        <v>0.5121635683207297</v>
+        <v>0.820333514617554</v>
       </c>
       <c r="D29" t="n" s="885">
-        <v>0.5694384744867784</v>
+        <v>0.7770942344201996</v>
       </c>
       <c r="E29" t="n" s="886">
-        <v>0.5576016964632112</v>
+        <v>0.794482965443715</v>
       </c>
       <c r="F29" t="n" s="887">
-        <v>0.4173763276069936</v>
+        <v>0.7120297989743365</v>
       </c>
       <c r="G29" t="n" s="888">
-        <v>3.861111111111111</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H29" t="n" s="889">
-        <v>1.1502242707471761</v>
+        <v>1.7482417471131406</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="878">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C30" t="n" s="884">
-        <v>0.6872717456454593</v>
+        <v>0.8087920902556917</v>
       </c>
       <c r="D30" t="n" s="885">
-        <v>0.6779399753508843</v>
+        <v>0.7630171072100714</v>
       </c>
       <c r="E30" t="n" s="886">
-        <v>0.6864467488260468</v>
+        <v>0.780482784009558</v>
       </c>
       <c r="F30" t="n" s="887">
-        <v>0.6624328066318232</v>
+        <v>0.6770164230787524</v>
       </c>
       <c r="G30" t="n" s="888">
-        <v>0.25</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H30" t="n" s="889">
-        <v>0.43915503282683993</v>
+        <v>1.9475259030003023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="878">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C31" t="n" s="884">
-        <v>0.7445826642735797</v>
+        <v>0.5338385475715208</v>
       </c>
       <c r="D31" t="n" s="885">
-        <v>0.7308034725780648</v>
+        <v>0.5298440986749973</v>
       </c>
       <c r="E31" t="n" s="886">
-        <v>0.7409708352298573</v>
+        <v>0.44483578120856837</v>
       </c>
       <c r="F31" t="n" s="887">
-        <v>0.6465309145342202</v>
+        <v>0.4183870617409958</v>
       </c>
       <c r="G31" t="n" s="888">
-        <v>0.9722222222222222</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="H31" t="n" s="889">
-        <v>1.7482417471131406</v>
+        <v>1.0495652917219118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="878">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="n" s="883">
         <v>36.0</v>
       </c>
       <c r="C32" t="n" s="884">
-        <v>0.7130875371389246</v>
+        <v>0.4767011022348429</v>
       </c>
       <c r="D32" t="n" s="885">
-        <v>0.699800149869011</v>
+        <v>0.4627673241259607</v>
       </c>
       <c r="E32" t="n" s="886">
-        <v>0.7096205227635274</v>
+        <v>0.36599382217220877</v>
       </c>
       <c r="F32" t="n" s="887">
-        <v>0.5911478963208647</v>
+        <v>0.31655086313090774</v>
       </c>
       <c r="G32" t="n" s="888">
-        <v>1.0833333333333333</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="H32" t="n" s="889">
-        <v>1.9475259030003023</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="878">
-        <v>27</v>
-      </c>
-      <c r="B33" t="n" s="883">
-        <v>36.0</v>
-      </c>
-      <c r="C33" t="n" s="884">
-        <v>0.7443538910272198</v>
-      </c>
-      <c r="D33" t="n" s="885">
-        <v>0.7153046725071278</v>
-      </c>
-      <c r="E33" t="n" s="886">
-        <v>0.6807666988248068</v>
-      </c>
-      <c r="F33" t="n" s="887">
-        <v>0.6503591387457162</v>
-      </c>
-      <c r="G33" t="n" s="888">
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="H33" t="n" s="889">
-        <v>1.6872538033222497</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="878">
-        <v>28</v>
-      </c>
-      <c r="B34" t="n" s="883">
-        <v>36.0</v>
-      </c>
-      <c r="C34" t="n" s="884">
-        <v>0.5492634857776993</v>
-      </c>
-      <c r="D34" t="n" s="885">
-        <v>0.5218867982297495</v>
-      </c>
-      <c r="E34" t="n" s="886">
-        <v>0.4625202882855437</v>
-      </c>
-      <c r="F34" t="n" s="887">
-        <v>0.4244563556212689</v>
-      </c>
-      <c r="G34" t="n" s="888">
-        <v>1.9722222222222223</v>
-      </c>
-      <c r="H34" t="n" s="889">
-        <v>1.5396866306605772</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="878">
-        <v>29</v>
-      </c>
-      <c r="B35" t="n" s="883">
-        <v>36.0</v>
-      </c>
-      <c r="C35" t="n" s="884">
-        <v>0.7513870521991917</v>
-      </c>
-      <c r="D35" t="n" s="885">
-        <v>0.7166294998807199</v>
-      </c>
-      <c r="E35" t="n" s="886">
-        <v>0.7035576825650174</v>
-      </c>
-      <c r="F35" t="n" s="887">
-        <v>0.6741661545129944</v>
-      </c>
-      <c r="G35" t="n" s="888">
-        <v>1.8611111111111112</v>
-      </c>
-      <c r="H35" t="n" s="889">
-        <v>1.4570572648375468</v>
+      <c r="A35" t="s" s="893">
+        <v>37</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="878">
-        <v>30</v>
-      </c>
-      <c r="B36" t="n" s="883">
-        <v>36.0</v>
-      </c>
-      <c r="C36" t="n" s="884">
-        <v>0.6601526010604563</v>
-      </c>
-      <c r="D36" t="n" s="885">
-        <v>0.6176959328060702</v>
-      </c>
-      <c r="E36" t="n" s="886">
-        <v>0.597037078701862</v>
-      </c>
-      <c r="F36" t="n" s="887">
-        <v>0.5592238461838306</v>
-      </c>
-      <c r="G36" t="n" s="888">
-        <v>1.75</v>
-      </c>
-      <c r="H36" t="n" s="889">
-        <v>1.5</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="907">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s" s="907">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s" s="907">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s" s="907">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s" s="907">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s" s="907">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s" s="907">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>1</v>
+      <c r="A37" t="s" s="903">
+        <v>18</v>
+      </c>
+      <c r="B37" t="n" s="908">
+        <v>0.0</v>
+      </c>
+      <c r="C37" t="n" s="909">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D37" t="n" s="910">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="E37" t="n" s="911">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F37" t="n" s="912">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G37" t="n" s="913">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H37" t="n" s="914">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>1</v>
+      <c r="A38" t="s" s="903">
+        <v>19</v>
+      </c>
+      <c r="B38" t="n" s="908">
+        <v>0.0</v>
+      </c>
+      <c r="C38" t="n" s="909">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="D38" t="n" s="910">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E38" t="n" s="911">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F38" t="n" s="912">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="G38" t="n" s="913">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="H38" t="n" s="914">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="893">
-        <v>37</v>
+      <c r="A39" t="s" s="903">
+        <v>20</v>
+      </c>
+      <c r="B39" t="n" s="908">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n" s="909">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="D39" t="n" s="910">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="E39" t="n" s="911">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F39" t="n" s="912">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="G39" t="n" s="913">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="H39" t="n" s="914">
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40" t="s" s="907">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s" s="907">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s" s="907">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s" s="907">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s" s="907">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s" s="907">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s" s="907">
-        <v>44</v>
+      <c r="A40" t="s" s="903">
+        <v>21</v>
+      </c>
+      <c r="B40" t="n" s="908">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="909">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="D40" t="n" s="910">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="E40" t="n" s="911">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F40" t="n" s="912">
+        <v>0.0</v>
+      </c>
+      <c r="G40" t="n" s="913">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="H40" t="n" s="914">
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="903">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B41" t="n" s="908">
+        <v>0.75</v>
+      </c>
+      <c r="C41" t="n" s="909">
+        <v>0.25</v>
+      </c>
+      <c r="D41" t="n" s="910">
         <v>0.0</v>
       </c>
-      <c r="C41" t="n" s="909">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D41" t="n" s="910">
-        <v>0.027777777777777776</v>
-      </c>
       <c r="E41" t="n" s="911">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n" s="912">
-        <v>0.4166666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n" s="913">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n" s="914">
         <v>0.0</v>
@@ -16216,25 +9531,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="903">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B42" t="n" s="908">
+        <v>0.75</v>
+      </c>
+      <c r="C42" t="n" s="909">
         <v>0.0</v>
       </c>
-      <c r="C42" t="n" s="909">
-        <v>0.027777777777777776</v>
-      </c>
       <c r="D42" t="n" s="910">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="911">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="F42" t="n" s="912">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G42" t="n" s="913">
         <v>0.05555555555555555</v>
-      </c>
-      <c r="E42" t="n" s="911">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F42" t="n" s="912">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="G42" t="n" s="913">
-        <v>0.5277777777777778</v>
       </c>
       <c r="H42" t="n" s="914">
         <v>0.0</v>
@@ -16242,22 +9557,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="903">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B43" t="n" s="908">
+        <v>0.75</v>
+      </c>
+      <c r="C43" t="n" s="909">
         <v>0.0</v>
       </c>
-      <c r="C43" t="n" s="909">
-        <v>0.027777777777777776</v>
-      </c>
       <c r="D43" t="n" s="910">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="911">
-        <v>0.3333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="F43" t="n" s="912">
-        <v>0.4722222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G43" t="n" s="913">
         <v>0.1388888888888889</v>
@@ -16268,25 +9583,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="903">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B44" t="n" s="908">
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="909">
-        <v>0.027777777777777776</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D44" t="n" s="910">
         <v>0.027777777777777776</v>
       </c>
       <c r="E44" t="n" s="911">
-        <v>0.4722222222222222</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F44" t="n" s="912">
-        <v>0.0</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="G44" t="n" s="913">
-        <v>0.4722222222222222</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H44" t="n" s="914">
         <v>0.0</v>
@@ -16294,183 +9609,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="903">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B45" t="n" s="908">
-        <v>0.75</v>
+        <v>0.0</v>
       </c>
       <c r="C45" t="n" s="909">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D45" t="n" s="910">
-        <v>0.0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E45" t="n" s="911">
-        <v>0.0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F45" t="n" s="912">
-        <v>0.0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G45" t="n" s="913">
-        <v>0.0</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H45" t="n" s="914">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="903">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="908">
-        <v>0.75</v>
-      </c>
-      <c r="C46" t="n" s="909">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="910">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="911">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F46" t="n" s="912">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G46" t="n" s="913">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H46" t="n" s="914">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="903">
-        <v>24</v>
-      </c>
-      <c r="B47" t="n" s="908">
-        <v>0.75</v>
-      </c>
-      <c r="C47" t="n" s="909">
-        <v>0.0</v>
-      </c>
-      <c r="D47" t="n" s="910">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="911">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="F47" t="n" s="912">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G47" t="n" s="913">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H47" t="n" s="914">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="903">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="908">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C48" t="n" s="909">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D48" t="n" s="910">
-        <v>0.0</v>
-      </c>
-      <c r="E48" t="n" s="911">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="F48" t="n" s="912">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G48" t="n" s="913">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="914">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="903">
-        <v>28</v>
-      </c>
-      <c r="B49" t="n" s="908">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C49" t="n" s="909">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D49" t="n" s="910">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E49" t="n" s="911">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F49" t="n" s="912">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G49" t="n" s="913">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="n" s="914">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="903">
-        <v>29</v>
-      </c>
-      <c r="B50" t="n" s="908">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C50" t="n" s="909">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D50" t="n" s="910">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E50" t="n" s="911">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F50" t="n" s="912">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G50" t="n" s="913">
-        <v>0.0</v>
-      </c>
-      <c r="H50" t="n" s="914">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="903">
-        <v>30</v>
-      </c>
-      <c r="B51" t="n" s="908">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C51" t="n" s="909">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D51" t="n" s="910">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E51" t="n" s="911">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F51" t="n" s="912">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G51" t="n" s="913">
-        <v>0.0</v>
-      </c>
-      <c r="H51" t="n" s="914">
         <v>0.0</v>
       </c>
     </row>
@@ -16550,31 +9709,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="945">
-        <v>0.8542677674838762</v>
+        <v>0.8444983818770226</v>
       </c>
       <c r="B6" t="n" s="946">
-        <v>0.8713848404264627</v>
+        <v>0.8474132301640888</v>
       </c>
       <c r="C6" t="n" s="947">
-        <v>0.9636079266509252</v>
+        <v>0.8401339404268553</v>
       </c>
       <c r="D6" t="n" s="948">
-        <v>0.3426087271155019</v>
+        <v>0.5813117730240912</v>
       </c>
       <c r="E6" t="n" s="949">
-        <v>6.775133221587602</v>
+        <v>5.5536481378784</v>
       </c>
       <c r="F6" t="n" s="950">
-        <v>0.03451822586702375</v>
+        <v>0.04329998794984645</v>
       </c>
       <c r="G6" t="n" s="951">
-        <v>2.4551282051282053</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="H6" t="n" s="952">
-        <v>0.818917290278961</v>
+        <v>1.2786401506759573</v>
       </c>
       <c r="I6" t="n" s="953">
-        <v>0.29901499292347217</v>
+        <v>0.5463070960377978</v>
       </c>
     </row>
     <row r="7">
@@ -16621,379 +9780,266 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="967">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="972">
-        <v>0.8420738987775694</v>
+        <v>0.8148685695855508</v>
       </c>
       <c r="C11" t="n" s="973">
-        <v>0.85839759112384</v>
+        <v>0.817439030470217</v>
       </c>
       <c r="D11" t="n" s="974">
-        <v>0.951228536311743</v>
+        <v>0.8045993369885177</v>
       </c>
       <c r="E11" t="n" s="975">
-        <v>0.3356227314334841</v>
+        <v>0.5988029399288327</v>
       </c>
       <c r="F11" t="n" s="976">
-        <v>6.062026754605299</v>
+        <v>4.477622092913238</v>
       </c>
       <c r="G11" t="n" s="977">
-        <v>0.037223044610842054</v>
+        <v>0.05654240338582593</v>
       </c>
       <c r="H11" t="n" s="978">
-        <v>0.05112166635764535</v>
+        <v>0.04393496872398668</v>
       </c>
       <c r="I11" t="n" s="979">
-        <v>0.29901499292347217</v>
+        <v>0.5331307687580308</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="967">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="972">
-        <v>0.8436062104057639</v>
+        <v>0.8473238628210648</v>
       </c>
       <c r="C12" t="n" s="973">
-        <v>0.8605986602919558</v>
+        <v>0.8539262877551995</v>
       </c>
       <c r="D12" t="n" s="974">
-        <v>0.9521121692063479</v>
+        <v>0.8260730613877758</v>
       </c>
       <c r="E12" t="n" s="975">
-        <v>0.3396990819524891</v>
+        <v>0.6608582515981108</v>
       </c>
       <c r="F12" t="n" s="976">
-        <v>6.173532206321359</v>
+        <v>5.845858742359685</v>
       </c>
       <c r="G12" t="n" s="977">
-        <v>0.03661096911718037</v>
+        <v>0.04639707850814558</v>
       </c>
       <c r="H12" t="n" s="978">
-        <v>0.05111307523584799</v>
+        <v>0.02291153685912622</v>
       </c>
       <c r="I12" t="n" s="979">
-        <v>0.305870787006155</v>
+        <v>0.598847626282453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="967">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" t="n" s="972">
-        <v>0.840499894090235</v>
+        <v>0.7560487059195615</v>
       </c>
       <c r="C13" t="n" s="973">
-        <v>0.854587112833522</v>
+        <v>0.7555855788816249</v>
       </c>
       <c r="D13" t="n" s="974">
-        <v>0.9515085725598907</v>
+        <v>0.6796881799871759</v>
       </c>
       <c r="E13" t="n" s="975">
-        <v>0.32874529133078456</v>
+        <v>0.5075033190158158</v>
       </c>
       <c r="F13" t="n" s="976">
-        <v>5.8769695691079695</v>
+        <v>3.0914116091197386</v>
       </c>
       <c r="G13" t="n" s="977">
-        <v>0.03771452550283548</v>
+        <v>0.06972315111281761</v>
       </c>
       <c r="H13" t="n" s="978">
-        <v>0.050089512376778195</v>
+        <v>0.004533502729646851</v>
       </c>
       <c r="I13" t="n" s="979">
-        <v>0.27641586603434</v>
+        <v>0.5422693496203315</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="967">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n" s="972">
-        <v>0.8492903947082389</v>
+        <v>0.7893766326896481</v>
       </c>
       <c r="C14" t="n" s="973">
-        <v>0.8666197814520464</v>
+        <v>0.7911706391586569</v>
       </c>
       <c r="D14" t="n" s="974">
-        <v>0.9539958496028289</v>
+        <v>0.7180434826987558</v>
       </c>
       <c r="E14" t="n" s="975">
-        <v>0.3512589016674872</v>
+        <v>0.558082581553605</v>
       </c>
       <c r="F14" t="n" s="976">
-        <v>6.497363633727101</v>
+        <v>3.7885986720025677</v>
       </c>
       <c r="G14" t="n" s="977">
-        <v>0.03540522175940462</v>
+        <v>0.060319700104385914</v>
       </c>
       <c r="H14" t="n" s="978">
-        <v>0.04950032702427114</v>
+        <v>0.0012672200688529317</v>
       </c>
       <c r="I14" t="n" s="979">
-        <v>0.3064851423638373</v>
+        <v>0.5422693496203315</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="967">
-        <v>22</v>
-      </c>
-      <c r="B15" t="n" s="972">
-        <v>0.8488727272727272</v>
-      </c>
-      <c r="C15" t="n" s="973">
-        <v>0.8590932982310063</v>
-      </c>
-      <c r="D15" t="n" s="974">
-        <v>0.9547793344127361</v>
-      </c>
-      <c r="E15" t="n" s="975">
-        <v>0.33690280479176626</v>
-      </c>
-      <c r="F15" t="n" s="976">
-        <v>6.096894522727721</v>
-      </c>
-      <c r="G15" t="n" s="977">
-        <v>0.036704591002315795</v>
-      </c>
-      <c r="H15" t="n" s="978">
-        <v>0.043763292400201076</v>
-      </c>
-      <c r="I15" t="n" s="979">
-        <v>0.3029589421084876</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="967">
-        <v>23</v>
-      </c>
-      <c r="B16" t="n" s="972">
-        <v>0.8337146297411198</v>
-      </c>
-      <c r="C16" t="n" s="973">
-        <v>0.8551417696592544</v>
-      </c>
-      <c r="D16" t="n" s="974">
-        <v>0.9552653619073652</v>
-      </c>
-      <c r="E16" t="n" s="975">
-        <v>0.3297325535447503</v>
-      </c>
-      <c r="F16" t="n" s="976">
-        <v>5.903301232161478</v>
-      </c>
-      <c r="G16" t="n" s="977">
-        <v>0.039640197128503044</v>
-      </c>
-      <c r="H16" t="n" s="978">
-        <v>0.04454054645215991</v>
-      </c>
-      <c r="I16" t="n" s="979">
-        <v>0.2898622270650154</v>
+      <c r="A16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="967">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="972">
-        <v>0.8392979121499212</v>
-      </c>
-      <c r="C17" t="n" s="973">
-        <v>0.8570691572091058</v>
-      </c>
-      <c r="D17" t="n" s="974">
-        <v>0.9558772065194475</v>
-      </c>
-      <c r="E17" t="n" s="975">
-        <v>0.33319962375658824</v>
-      </c>
-      <c r="F17" t="n" s="976">
-        <v>5.9963905653518506</v>
-      </c>
-      <c r="G17" t="n" s="977">
-        <v>0.03825150335869804</v>
-      </c>
-      <c r="H17" t="n" s="978">
-        <v>0.04410049290963099</v>
-      </c>
-      <c r="I17" t="n" s="979">
-        <v>0.29901499292347217</v>
+      <c r="A17" t="s" s="983">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="967">
-        <v>25</v>
-      </c>
-      <c r="B18" t="n" s="972">
-        <v>0.8478163182785112</v>
-      </c>
-      <c r="C18" t="n" s="973">
-        <v>0.8681111623471602</v>
-      </c>
-      <c r="D18" t="n" s="974">
-        <v>0.9543037644121067</v>
-      </c>
-      <c r="E18" t="n" s="975">
-        <v>0.35421871776997965</v>
-      </c>
-      <c r="F18" t="n" s="976">
-        <v>6.582142793859623</v>
-      </c>
-      <c r="G18" t="n" s="977">
-        <v>0.03624025105195052</v>
-      </c>
-      <c r="H18" t="n" s="978">
-        <v>0.05361752024568403</v>
-      </c>
-      <c r="I18" t="n" s="979">
-        <v>0.29901499292347217</v>
+      <c r="A18"/>
+      <c r="B18" t="s" s="997">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="997">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="997">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="997">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="997">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s" s="997">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s" s="997">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="967">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="972">
-        <v>0.8599372755846417</v>
-      </c>
-      <c r="C19" t="n" s="973">
-        <v>0.877451213129992</v>
-      </c>
-      <c r="D19" t="n" s="974">
-        <v>0.962792439894522</v>
-      </c>
-      <c r="E19" t="n" s="975">
-        <v>0.37369570489816434</v>
-      </c>
-      <c r="F19" t="n" s="976">
-        <v>7.160015497017831</v>
-      </c>
-      <c r="G19" t="n" s="977">
-        <v>0.0332909984168751</v>
-      </c>
-      <c r="H19" t="n" s="978">
-        <v>0.049345286379792644</v>
-      </c>
-      <c r="I19" t="n" s="979">
-        <v>0.3169734977649337</v>
+      <c r="A19" t="s" s="993">
+        <v>27</v>
+      </c>
+      <c r="B19" t="n" s="998">
+        <v>36.0</v>
+      </c>
+      <c r="C19" t="n" s="999">
+        <v>0.825144435087365</v>
+      </c>
+      <c r="D19" t="n" s="1000">
+        <v>0.812402577518656</v>
+      </c>
+      <c r="E19" t="n" s="1001">
+        <v>0.7013539318107984</v>
+      </c>
+      <c r="F19" t="n" s="1002">
+        <v>0.6592171939415405</v>
+      </c>
+      <c r="G19" t="n" s="1003">
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="H19" t="n" s="1004">
+        <v>1.6872538033222497</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="967">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="972">
-        <v>0.8351473712203983</v>
-      </c>
-      <c r="C20" t="n" s="973">
-        <v>0.8572459321679106</v>
-      </c>
-      <c r="D20" t="n" s="974">
-        <v>0.9553440215124184</v>
-      </c>
-      <c r="E20" t="n" s="975">
-        <v>0.3335204779338907</v>
-      </c>
-      <c r="F20" t="n" s="976">
-        <v>6.0050543230489515</v>
-      </c>
-      <c r="G20" t="n" s="977">
-        <v>0.03953767150480246</v>
-      </c>
-      <c r="H20" t="n" s="978">
-        <v>0.05309607578824932</v>
-      </c>
-      <c r="I20" t="n" s="979">
-        <v>0.28385053536815297</v>
+      <c r="A20" t="s" s="993">
+        <v>28</v>
+      </c>
+      <c r="B20" t="n" s="998">
+        <v>36.0</v>
+      </c>
+      <c r="C20" t="n" s="999">
+        <v>0.7578907870147142</v>
+      </c>
+      <c r="D20" t="n" s="1000">
+        <v>0.7562094394942044</v>
+      </c>
+      <c r="E20" t="n" s="1001">
+        <v>0.6159831124471187</v>
+      </c>
+      <c r="F20" t="n" s="1002">
+        <v>0.5736173094879204</v>
+      </c>
+      <c r="G20" t="n" s="1003">
+        <v>1.9722222222222223</v>
+      </c>
+      <c r="H20" t="n" s="1004">
+        <v>1.5396866306605772</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="967">
-        <v>28</v>
-      </c>
-      <c r="B21" t="n" s="972">
-        <v>0.8528861996063278</v>
-      </c>
-      <c r="C21" t="n" s="973">
-        <v>0.8714351811271958</v>
-      </c>
-      <c r="D21" t="n" s="974">
-        <v>0.958125382831104</v>
-      </c>
-      <c r="E21" t="n" s="975">
-        <v>0.3609603536985309</v>
-      </c>
-      <c r="F21" t="n" s="976">
-        <v>6.778177644300585</v>
-      </c>
-      <c r="G21" t="n" s="977">
-        <v>0.03461992417442436</v>
-      </c>
-      <c r="H21" t="n" s="978">
-        <v>0.04969309987729081</v>
-      </c>
-      <c r="I21" t="n" s="979">
-        <v>0.3021425645946821</v>
+      <c r="A21" t="s" s="993">
+        <v>29</v>
+      </c>
+      <c r="B21" t="n" s="998">
+        <v>36.0</v>
+      </c>
+      <c r="C21" t="n" s="999">
+        <v>0.8873475746145895</v>
+      </c>
+      <c r="D21" t="n" s="1000">
+        <v>0.8950774052092756</v>
+      </c>
+      <c r="E21" t="n" s="1001">
+        <v>0.8914361931257052</v>
+      </c>
+      <c r="F21" t="n" s="1002">
+        <v>0.7941072728639068</v>
+      </c>
+      <c r="G21" t="n" s="1003">
+        <v>1.8611111111111112</v>
+      </c>
+      <c r="H21" t="n" s="1004">
+        <v>1.4570572648375468</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="967">
-        <v>29</v>
-      </c>
-      <c r="B22" t="n" s="972">
-        <v>0.8336703567878807</v>
-      </c>
-      <c r="C22" t="n" s="973">
-        <v>0.8569072806821335</v>
-      </c>
-      <c r="D22" t="n" s="974">
-        <v>0.9545056181762239</v>
-      </c>
-      <c r="E22" t="n" s="975">
-        <v>0.3329062360869708</v>
-      </c>
-      <c r="F22" t="n" s="976">
-        <v>5.988475757306692</v>
-      </c>
-      <c r="G22" t="n" s="977">
-        <v>0.03950979614739485</v>
-      </c>
-      <c r="H22" t="n" s="978">
-        <v>0.05060983805317341</v>
-      </c>
-      <c r="I22" t="n" s="979">
-        <v>0.27641586603434</v>
+      <c r="A22" t="s" s="993">
+        <v>30</v>
+      </c>
+      <c r="B22" t="n" s="998">
+        <v>36.0</v>
+      </c>
+      <c r="C22" t="n" s="999">
+        <v>0.8416679826779603</v>
+      </c>
+      <c r="D22" t="n" s="1000">
+        <v>0.8492762093969264</v>
+      </c>
+      <c r="E22" t="n" s="1001">
+        <v>0.8278519893367312</v>
+      </c>
+      <c r="F22" t="n" s="1002">
+        <v>0.7125379426361675</v>
+      </c>
+      <c r="G22" t="n" s="1003">
+        <v>1.75</v>
+      </c>
+      <c r="H22" t="n" s="1004">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="967">
-        <v>30</v>
-      </c>
-      <c r="B23" t="n" s="972">
-        <v>0.8406552698735009</v>
-      </c>
-      <c r="C23" t="n" s="973">
-        <v>0.8625880231729771</v>
-      </c>
-      <c r="D23" t="n" s="974">
-        <v>0.9583651164101393</v>
-      </c>
-      <c r="E23" t="n" s="975">
-        <v>0.3434509736366387</v>
-      </c>
-      <c r="F23" t="n" s="976">
-        <v>6.2773860262473455</v>
-      </c>
-      <c r="G23" t="n" s="977">
-        <v>0.03776685738559079</v>
-      </c>
-      <c r="H23" t="n" s="978">
-        <v>0.05118310848317778</v>
-      </c>
-      <c r="I23" t="n" s="979">
-        <v>0.29901499292347217</v>
+      <c r="A23" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -17002,751 +10048,120 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>1</v>
+      <c r="A25" t="s" s="1008">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="983">
-        <v>31</v>
+      <c r="A26"/>
+      <c r="B26" t="s" s="1022">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="1022">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="1022">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="1022">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="1022">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s" s="1022">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27"/>
-      <c r="B27" t="s" s="997">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s" s="997">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s" s="997">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s" s="997">
-        <v>35</v>
-      </c>
-      <c r="F27" t="s" s="997">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s" s="997">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s" s="997">
-        <v>10</v>
+      <c r="A27" t="s" s="1018">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n" s="1023">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C27" t="n" s="1024">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D27" t="n" s="1025">
+        <v>0.0</v>
+      </c>
+      <c r="E27" t="n" s="1026">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F27" t="n" s="1027">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G27" t="n" s="1028">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="993">
-        <v>18</v>
-      </c>
-      <c r="B28" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C28" t="n" s="999">
-        <v>0.6423864441345629</v>
-      </c>
-      <c r="D28" t="n" s="1000">
-        <v>0.6836017978864587</v>
-      </c>
-      <c r="E28" t="n" s="1001">
-        <v>0.6805800355879172</v>
-      </c>
-      <c r="F28" t="n" s="1002">
-        <v>0.5823875075678062</v>
-      </c>
-      <c r="G28" t="n" s="1003">
-        <v>3.611111111111111</v>
-      </c>
-      <c r="H28" t="n" s="1004">
-        <v>0.9936305084394236</v>
+      <c r="A28" t="s" s="1018">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n" s="1023">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="C28" t="n" s="1024">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D28" t="n" s="1025">
+        <v>0.027777777777777776</v>
+      </c>
+      <c r="E28" t="n" s="1026">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="F28" t="n" s="1027">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G28" t="n" s="1028">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="993">
-        <v>19</v>
-      </c>
-      <c r="B29" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C29" t="n" s="999">
-        <v>0.6033276611835886</v>
-      </c>
-      <c r="D29" t="n" s="1000">
-        <v>0.650596937962555</v>
-      </c>
-      <c r="E29" t="n" s="1001">
-        <v>0.6446754117168398</v>
-      </c>
-      <c r="F29" t="n" s="1002">
-        <v>0.5252202710838062</v>
-      </c>
-      <c r="G29" t="n" s="1003">
-        <v>3.9722222222222223</v>
-      </c>
-      <c r="H29" t="n" s="1004">
-        <v>1.1828805304029435</v>
+      <c r="A29" t="s" s="1018">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n" s="1023">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="C29" t="n" s="1024">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D29" t="n" s="1025">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" t="n" s="1026">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F29" t="n" s="1027">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="G29" t="n" s="1028">
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="993">
-        <v>20</v>
-      </c>
-      <c r="B30" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C30" t="n" s="999">
-        <v>0.7037272203208732</v>
-      </c>
-      <c r="D30" t="n" s="1000">
-        <v>0.7392861523516485</v>
-      </c>
-      <c r="E30" t="n" s="1001">
-        <v>0.7388281492670952</v>
-      </c>
-      <c r="F30" t="n" s="1002">
-        <v>0.6591673531881059</v>
-      </c>
-      <c r="G30" t="n" s="1003">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H30" t="n" s="1004">
-        <v>0.8618916073713346</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="993">
-        <v>21</v>
-      </c>
-      <c r="B31" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C31" t="n" s="999">
-        <v>0.50768187771072</v>
-      </c>
-      <c r="D31" t="n" s="1000">
-        <v>0.5570009067428894</v>
-      </c>
-      <c r="E31" t="n" s="1001">
-        <v>0.5485791783133122</v>
-      </c>
-      <c r="F31" t="n" s="1002">
-        <v>0.4207954598424237</v>
-      </c>
-      <c r="G31" t="n" s="1003">
-        <v>3.861111111111111</v>
-      </c>
-      <c r="H31" t="n" s="1004">
-        <v>1.1502242707471761</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="993">
-        <v>22</v>
-      </c>
-      <c r="B32" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C32" t="n" s="999">
-        <v>0.6829332066555567</v>
-      </c>
-      <c r="D32" t="n" s="1000">
-        <v>0.6732374679090808</v>
-      </c>
-      <c r="E32" t="n" s="1001">
-        <v>0.6829142929500422</v>
-      </c>
-      <c r="F32" t="n" s="1002">
-        <v>0.6599663291074445</v>
-      </c>
-      <c r="G32" t="n" s="1003">
-        <v>0.25</v>
-      </c>
-      <c r="H32" t="n" s="1004">
-        <v>0.43915503282683993</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="993">
-        <v>23</v>
-      </c>
-      <c r="B33" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C33" t="n" s="999">
-        <v>0.7444134083251759</v>
-      </c>
-      <c r="D33" t="n" s="1000">
-        <v>0.7312926172206081</v>
-      </c>
-      <c r="E33" t="n" s="1001">
-        <v>0.7423694133622221</v>
-      </c>
-      <c r="F33" t="n" s="1002">
-        <v>0.655902632245734</v>
-      </c>
-      <c r="G33" t="n" s="1003">
-        <v>0.9722222222222222</v>
-      </c>
-      <c r="H33" t="n" s="1004">
-        <v>1.7482417471131406</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="993">
-        <v>24</v>
-      </c>
-      <c r="B34" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C34" t="n" s="999">
-        <v>0.7155530300839984</v>
-      </c>
-      <c r="D34" t="n" s="1000">
-        <v>0.7032208981290954</v>
-      </c>
-      <c r="E34" t="n" s="1001">
-        <v>0.7139597153644609</v>
-      </c>
-      <c r="F34" t="n" s="1002">
-        <v>0.6063181494972735</v>
-      </c>
-      <c r="G34" t="n" s="1003">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="H34" t="n" s="1004">
-        <v>1.9475259030003023</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="993">
-        <v>25</v>
-      </c>
-      <c r="B35" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C35" t="n" s="999">
-        <v>0.5297353809579437</v>
-      </c>
-      <c r="D35" t="n" s="1000">
-        <v>0.5330362561546164</v>
-      </c>
-      <c r="E35" t="n" s="1001">
-        <v>0.5032478667538424</v>
-      </c>
-      <c r="F35" t="n" s="1002">
-        <v>0.45314447041163813</v>
-      </c>
-      <c r="G35" t="n" s="1003">
-        <v>3.388888888888889</v>
-      </c>
-      <c r="H35" t="n" s="1004">
-        <v>1.0495652917219118</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="993">
-        <v>26</v>
-      </c>
-      <c r="B36" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C36" t="n" s="999">
-        <v>0.3636535720240473</v>
-      </c>
-      <c r="D36" t="n" s="1000">
-        <v>0.375337542830444</v>
-      </c>
-      <c r="E36" t="n" s="1001">
-        <v>0.32084503838554723</v>
-      </c>
-      <c r="F36" t="n" s="1002">
-        <v>0.2479411732609725</v>
-      </c>
-      <c r="G36" t="n" s="1003">
-        <v>4.222222222222222</v>
-      </c>
-      <c r="H36" t="n" s="1004">
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="993">
-        <v>27</v>
-      </c>
-      <c r="B37" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C37" t="n" s="999">
-        <v>0.7267836466250611</v>
-      </c>
-      <c r="D37" t="n" s="1000">
-        <v>0.700623048133494</v>
-      </c>
-      <c r="E37" t="n" s="1001">
-        <v>0.6806195986206812</v>
-      </c>
-      <c r="F37" t="n" s="1002">
-        <v>0.6374706472810446</v>
-      </c>
-      <c r="G37" t="n" s="1003">
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="H37" t="n" s="1004">
-        <v>1.6872538033222497</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="993">
-        <v>28</v>
-      </c>
-      <c r="B38" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C38" t="n" s="999">
-        <v>0.5105758948593334</v>
-      </c>
-      <c r="D38" t="n" s="1000">
-        <v>0.4784514631044592</v>
-      </c>
-      <c r="E38" t="n" s="1001">
-        <v>0.4456836275877249</v>
-      </c>
-      <c r="F38" t="n" s="1002">
-        <v>0.3916120525734487</v>
-      </c>
-      <c r="G38" t="n" s="1003">
-        <v>1.9722222222222223</v>
-      </c>
-      <c r="H38" t="n" s="1004">
-        <v>1.5396866306605772</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="993">
-        <v>29</v>
-      </c>
-      <c r="B39" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C39" t="n" s="999">
-        <v>0.7360025304008339</v>
-      </c>
-      <c r="D39" t="n" s="1000">
-        <v>0.70559636090983</v>
-      </c>
-      <c r="E39" t="n" s="1001">
-        <v>0.6962214314226868</v>
-      </c>
-      <c r="F39" t="n" s="1002">
-        <v>0.6627422968060868</v>
-      </c>
-      <c r="G39" t="n" s="1003">
-        <v>1.8611111111111112</v>
-      </c>
-      <c r="H39" t="n" s="1004">
-        <v>1.4570572648375468</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="993">
+      <c r="A30" t="s" s="1018">
         <v>30</v>
       </c>
-      <c r="B40" t="n" s="998">
-        <v>36.0</v>
-      </c>
-      <c r="C40" t="n" s="999">
-        <v>0.6552921070298023</v>
-      </c>
-      <c r="D40" t="n" s="1000">
-        <v>0.6202191137524715</v>
-      </c>
-      <c r="E40" t="n" s="1001">
-        <v>0.6032772089393289</v>
-      </c>
-      <c r="F40" t="n" s="1002">
-        <v>0.5628618967574219</v>
-      </c>
-      <c r="G40" t="n" s="1003">
-        <v>1.75</v>
-      </c>
-      <c r="H40" t="n" s="1004">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="1008">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44"/>
-      <c r="B44" t="s" s="1022">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s" s="1022">
-        <v>39</v>
-      </c>
-      <c r="D44" t="s" s="1022">
-        <v>40</v>
-      </c>
-      <c r="E44" t="s" s="1022">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s" s="1022">
-        <v>42</v>
-      </c>
-      <c r="G44" t="s" s="1022">
-        <v>43</v>
-      </c>
-      <c r="H44" t="s" s="1022">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="1018">
-        <v>18</v>
-      </c>
-      <c r="B45" t="n" s="1023">
-        <v>0.0</v>
-      </c>
-      <c r="C45" t="n" s="1024">
+      <c r="B30" t="n" s="1023">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C30" t="n" s="1024">
         <v>0.05555555555555555</v>
       </c>
-      <c r="D45" t="n" s="1025">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E45" t="n" s="1026">
+      <c r="D30" t="n" s="1025">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F45" t="n" s="1027">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G45" t="n" s="1028">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H45" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="1018">
-        <v>19</v>
-      </c>
-      <c r="B46" t="n" s="1023">
-        <v>0.0</v>
-      </c>
-      <c r="C46" t="n" s="1024">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D46" t="n" s="1025">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E46" t="n" s="1026">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F46" t="n" s="1027">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="G46" t="n" s="1028">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="H46" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="1018">
-        <v>20</v>
-      </c>
-      <c r="B47" t="n" s="1023">
-        <v>0.0</v>
-      </c>
-      <c r="C47" t="n" s="1024">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D47" t="n" s="1025">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E47" t="n" s="1026">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F47" t="n" s="1027">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="G47" t="n" s="1028">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H47" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="1018">
-        <v>21</v>
-      </c>
-      <c r="B48" t="n" s="1023">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n" s="1024">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="D48" t="n" s="1025">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E48" t="n" s="1026">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="F48" t="n" s="1027">
-        <v>0.0</v>
-      </c>
-      <c r="G48" t="n" s="1028">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="H48" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="1018">
-        <v>22</v>
-      </c>
-      <c r="B49" t="n" s="1023">
-        <v>0.75</v>
-      </c>
-      <c r="C49" t="n" s="1024">
-        <v>0.25</v>
-      </c>
-      <c r="D49" t="n" s="1025">
-        <v>0.0</v>
-      </c>
-      <c r="E49" t="n" s="1026">
-        <v>0.0</v>
-      </c>
-      <c r="F49" t="n" s="1027">
-        <v>0.0</v>
-      </c>
-      <c r="G49" t="n" s="1028">
-        <v>0.0</v>
-      </c>
-      <c r="H49" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="1018">
-        <v>23</v>
-      </c>
-      <c r="B50" t="n" s="1023">
-        <v>0.75</v>
-      </c>
-      <c r="C50" t="n" s="1024">
-        <v>0.0</v>
-      </c>
-      <c r="D50" t="n" s="1025">
-        <v>0.0</v>
-      </c>
-      <c r="E50" t="n" s="1026">
+      <c r="E30" t="n" s="1026">
         <v>0.08333333333333333</v>
       </c>
-      <c r="F50" t="n" s="1027">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G50" t="n" s="1028">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H50" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="1018">
-        <v>24</v>
-      </c>
-      <c r="B51" t="n" s="1023">
-        <v>0.75</v>
-      </c>
-      <c r="C51" t="n" s="1024">
-        <v>0.0</v>
-      </c>
-      <c r="D51" t="n" s="1025">
-        <v>0.0</v>
-      </c>
-      <c r="E51" t="n" s="1026">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="F51" t="n" s="1027">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G51" t="n" s="1028">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H51" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="1018">
-        <v>25</v>
-      </c>
-      <c r="B52" t="n" s="1023">
-        <v>0.0</v>
-      </c>
-      <c r="C52" t="n" s="1024">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D52" t="n" s="1025">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E52" t="n" s="1026">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="F52" t="n" s="1027">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="G52" t="n" s="1028">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="H52" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="1018">
-        <v>26</v>
-      </c>
-      <c r="B53" t="n" s="1023">
-        <v>0.0</v>
-      </c>
-      <c r="C53" t="n" s="1024">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D53" t="n" s="1025">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E53" t="n" s="1026">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F53" t="n" s="1027">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="G53" t="n" s="1028">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="H53" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="1018">
-        <v>27</v>
-      </c>
-      <c r="B54" t="n" s="1023">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C54" t="n" s="1024">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D54" t="n" s="1025">
-        <v>0.0</v>
-      </c>
-      <c r="E54" t="n" s="1026">
+      <c r="F30" t="n" s="1027">
         <v>0.19444444444444445</v>
       </c>
-      <c r="F54" t="n" s="1027">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G54" t="n" s="1028">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="1018">
-        <v>28</v>
-      </c>
-      <c r="B55" t="n" s="1023">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C55" t="n" s="1024">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D55" t="n" s="1025">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="E55" t="n" s="1026">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="F55" t="n" s="1027">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G55" t="n" s="1028">
-        <v>0.0</v>
-      </c>
-      <c r="H55" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="1018">
-        <v>29</v>
-      </c>
-      <c r="B56" t="n" s="1023">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C56" t="n" s="1024">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D56" t="n" s="1025">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E56" t="n" s="1026">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F56" t="n" s="1027">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G56" t="n" s="1028">
-        <v>0.0</v>
-      </c>
-      <c r="H56" t="n" s="1029">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="1018">
-        <v>30</v>
-      </c>
-      <c r="B57" t="n" s="1023">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C57" t="n" s="1024">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="D57" t="n" s="1025">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E57" t="n" s="1026">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F57" t="n" s="1027">
-        <v>0.19444444444444445</v>
-      </c>
-      <c r="G57" t="n" s="1028">
-        <v>0.0</v>
-      </c>
-      <c r="H57" t="n" s="1029">
+      <c r="G30" t="n" s="1028">
         <v>0.0</v>
       </c>
     </row>
